--- a/ensemble/unet_with_amplification256x256d4f32.xlsx
+++ b/ensemble/unet_with_amplification256x256d4f32.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O131"/>
+  <dimension ref="A1:O114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,22 +441,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>binary_io_u_6</t>
+          <t>binary_io_u_1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>precision_6</t>
+          <t>precision_9</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>recall_6</t>
+          <t>recall_9</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>auc_6</t>
+          <t>auc_9</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -476,22 +476,22 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>val_binary_io_u_6</t>
+          <t>val_binary_io_u_1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>val_precision_6</t>
+          <t>val_precision_9</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>val_recall_6</t>
+          <t>val_recall_9</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>val_auc_6</t>
+          <t>val_auc_9</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -512,46 +512,46 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.461263507604599</v>
+        <v>1.219309329986572</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4977279901504517</v>
+        <v>0.4931159615516663</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3742403984069824</v>
+        <v>0.34685018658638</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7968553304672241</v>
+        <v>0.8151144981384277</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8492206335067749</v>
+        <v>0.8695050477981567</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4803507030010223</v>
+        <v>0.4486346542835236</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4156465232372284</v>
+        <v>0.4105768501758575</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6439240574836731</v>
+        <v>1.368937492370605</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4357496500015259</v>
+        <v>0.4416529834270477</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1253616213798523</v>
+        <v>0.02962962910532951</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001585362013429403</v>
+        <v>5.230994247540366e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5204373002052307</v>
+        <v>0.5648989081382751</v>
       </c>
       <c r="M2" t="n">
-        <v>0.003131129778921604</v>
+        <v>1.046014131134143e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0006001839647069573</v>
+        <v>-0.00123067747335881</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
@@ -559,46 +559,46 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.3374564051628113</v>
+        <v>0.9913637042045593</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6566590070724487</v>
+        <v>0.6524736285209656</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6053075194358826</v>
+        <v>0.5744288563728333</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7845139503479004</v>
+        <v>0.8169978857040405</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9073424935340881</v>
+        <v>0.9235525131225586</v>
       </c>
       <c r="F3" t="n">
-        <v>0.662747323513031</v>
+        <v>0.6453595161437988</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6140825748443604</v>
+        <v>0.6133275032043457</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6660195589065552</v>
+        <v>1.319329261779785</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4344944953918457</v>
+        <v>0.4431983828544617</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1271186470985413</v>
+        <v>0.1428571492433548</v>
       </c>
       <c r="K3" t="n">
-        <v>1.796192009351216e-05</v>
+        <v>5.372553005145164e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6135554909706116</v>
+        <v>0.6206564903259277</v>
       </c>
       <c r="M3" t="n">
-        <v>3.592108259908855e-05</v>
+        <v>1.074470219464274e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>-7.157831714721397e-05</v>
+        <v>0.0001905360113596544</v>
       </c>
       <c r="O3" t="n">
         <v>2</v>
@@ -606,46 +606,46 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.2712507545948029</v>
+        <v>0.9153109192848206</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7138340473175049</v>
+        <v>0.684963047504425</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7227937579154968</v>
+        <v>0.6622154712677002</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7580587863922119</v>
+        <v>0.7959677577018738</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9094041585922241</v>
+        <v>0.9289259910583496</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7280496954917908</v>
+        <v>0.6937601566314697</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6826096773147583</v>
+        <v>0.6612774729728699</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6492784023284912</v>
+        <v>1.295400142669678</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4828537702560425</v>
+        <v>0.4467902481555939</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9506893754005432</v>
+        <v>0.7173079252243042</v>
       </c>
       <c r="K4" t="n">
-        <v>0.08039148896932602</v>
+        <v>0.008643542416393757</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7230780124664307</v>
+        <v>0.7896507382392883</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1482847183942795</v>
+        <v>0.01708125695586205</v>
       </c>
       <c r="N4" t="n">
-        <v>0.258150726556778</v>
+        <v>0.07028994709253311</v>
       </c>
       <c r="O4" t="n">
         <v>3</v>
@@ -653,46 +653,46 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.2464267015457153</v>
+        <v>0.8353924751281738</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7381478548049927</v>
+        <v>0.7115770578384399</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7609127163887024</v>
+        <v>0.7021158337593079</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7545121908187866</v>
+        <v>0.7990471124649048</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9120787978172302</v>
+        <v>0.9377723336219788</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7526432871818542</v>
+        <v>0.7251192927360535</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7125175595283508</v>
+        <v>0.692309558391571</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3592042624950409</v>
+        <v>0.9626086354255676</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6621524691581726</v>
+        <v>0.6254197359085083</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8045241236686707</v>
+        <v>0.8203185200691223</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4576155841350555</v>
+        <v>0.3607879281044006</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8556051850318909</v>
+        <v>0.8848627805709839</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5834633111953735</v>
+        <v>0.5011588931083679</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5663579106330872</v>
+        <v>0.5113646388053894</v>
       </c>
       <c r="O5" t="n">
         <v>4</v>
@@ -700,46 +700,46 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.2201517671346664</v>
+        <v>0.7999520301818848</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7499664425849915</v>
+        <v>0.7307039499282837</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7977743744850159</v>
+        <v>0.7047234773635864</v>
       </c>
       <c r="D6" t="n">
-        <v>0.747771680355072</v>
+        <v>0.7984944581985474</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9182721376419067</v>
+        <v>0.9407206177711487</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7693730592727661</v>
+        <v>0.7347724437713623</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7319594025611877</v>
+        <v>0.7025207281112671</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2930945456027985</v>
+        <v>0.7051419615745544</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7149490118026733</v>
+        <v>0.751004695892334</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8621988296508789</v>
+        <v>0.8343830108642578</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5476133823394775</v>
+        <v>0.6314156651496887</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8949841260910034</v>
+        <v>0.9362692832946777</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6698681712150574</v>
+        <v>0.7188470363616943</v>
       </c>
       <c r="N6" t="n">
-        <v>0.653547465801239</v>
+        <v>0.6972761750221252</v>
       </c>
       <c r="O6" t="n">
         <v>5</v>
@@ -747,46 +747,46 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2175794541835785</v>
+        <v>0.7580798864364624</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7575052976608276</v>
+        <v>0.733113169670105</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7988282442092896</v>
+        <v>0.7372300624847412</v>
       </c>
       <c r="D7" t="n">
-        <v>0.742790699005127</v>
+        <v>0.7856497764587402</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9195538759231567</v>
+        <v>0.9412863254547119</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7708995342254639</v>
+        <v>0.7451817989349365</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7350682020187378</v>
+        <v>0.7122249007225037</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2440795451402664</v>
+        <v>0.568093478679657</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7530567646026611</v>
+        <v>0.804379940032959</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7851503491401672</v>
+        <v>0.8181712627410889</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6938193440437317</v>
+        <v>0.7718085050582886</v>
       </c>
       <c r="L7" t="n">
-        <v>0.917771577835083</v>
+        <v>0.9621649980545044</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7366555333137512</v>
+        <v>0.794313907623291</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7022047638893127</v>
+        <v>0.7690865397453308</v>
       </c>
       <c r="O7" t="n">
         <v>6</v>
@@ -794,46 +794,46 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.2019383758306503</v>
+        <v>0.7274826765060425</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7645800113677979</v>
+        <v>0.7334775924682617</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8208268880844116</v>
+        <v>0.7557709217071533</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7347721457481384</v>
+        <v>0.774303138256073</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9251052141189575</v>
+        <v>0.9424015283584595</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7790007591247559</v>
+        <v>0.7498448491096497</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7436596155166626</v>
+        <v>0.7180062532424927</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2410478591918945</v>
+        <v>0.5692171454429626</v>
       </c>
       <c r="I8" t="n">
-        <v>0.757318913936615</v>
+        <v>0.8072333335876465</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7841716408729553</v>
+        <v>0.772791862487793</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7014999985694885</v>
+        <v>0.8292980790138245</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9185401797294617</v>
+        <v>0.9697231650352478</v>
       </c>
       <c r="M8" t="n">
-        <v>0.74055016040802</v>
+        <v>0.8000484704971313</v>
       </c>
       <c r="N8" t="n">
-        <v>0.706140398979187</v>
+        <v>0.7738706469535828</v>
       </c>
       <c r="O8" t="n">
         <v>7</v>
@@ -841,46 +841,46 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1956551820039749</v>
+        <v>0.6886613368988037</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7629170417785645</v>
+        <v>0.7429429888725281</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8296363353729248</v>
+        <v>0.7653469443321228</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7179813981056213</v>
+        <v>0.77643221616745</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9220608472824097</v>
+        <v>0.9449566602706909</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7777248024940491</v>
+        <v>0.7580845952033997</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7429600358009338</v>
+        <v>0.7262225747108459</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2251851111650467</v>
+        <v>0.5527355670928955</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7744125127792358</v>
+        <v>0.8109962940216064</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7906028628349304</v>
+        <v>0.766208827495575</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7419685125350952</v>
+        <v>0.8503198623657227</v>
       </c>
       <c r="L9" t="n">
-        <v>0.932059645652771</v>
+        <v>0.9713932275772095</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7654879093170166</v>
+        <v>0.8060761094093323</v>
       </c>
       <c r="N9" t="n">
-        <v>0.7320115566253662</v>
+        <v>0.7802313566207886</v>
       </c>
       <c r="O9" t="n">
         <v>8</v>
@@ -888,46 +888,46 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1933911740779877</v>
+        <v>0.6647577881813049</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7688586711883545</v>
+        <v>0.745485782623291</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8372610211372375</v>
+        <v>0.7764520645141602</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7181316614151001</v>
+        <v>0.7698056697845459</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9279899597167969</v>
+        <v>0.9468850493431091</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7817730903625488</v>
+        <v>0.7616958618164062</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7477747201919556</v>
+        <v>0.7305800318717957</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2267298251390457</v>
+        <v>0.5735369324684143</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7654062509536743</v>
+        <v>0.7977554798126221</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7168333530426025</v>
+        <v>0.7358168959617615</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8044939041137695</v>
+        <v>0.8496899604797363</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9445847868919373</v>
+        <v>0.9687365293502808</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7581248879432678</v>
+        <v>0.7886641621589661</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7220771312713623</v>
+        <v>0.7627942562103271</v>
       </c>
       <c r="O10" t="n">
         <v>9</v>
@@ -935,46 +935,46 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.181853249669075</v>
+        <v>0.6374824643135071</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7742209434509277</v>
+        <v>0.7557838559150696</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8457807302474976</v>
+        <v>0.7713204026222229</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7255513072013855</v>
+        <v>0.7842659950256348</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9335031509399414</v>
+        <v>0.952609121799469</v>
       </c>
       <c r="F11" t="n">
-        <v>0.788072943687439</v>
+        <v>0.7662887573242188</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7557315230369568</v>
+        <v>0.7363224029541016</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2263342291116714</v>
+        <v>0.5089418888092041</v>
       </c>
       <c r="I11" t="n">
-        <v>0.762108325958252</v>
+        <v>0.8162984848022461</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7190860509872437</v>
+        <v>0.7927319407463074</v>
       </c>
       <c r="K11" t="n">
-        <v>0.795535147190094</v>
+        <v>0.8271640539169312</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9444649815559387</v>
+        <v>0.9725936651229858</v>
       </c>
       <c r="M11" t="n">
-        <v>0.755388617515564</v>
+        <v>0.8095820546150208</v>
       </c>
       <c r="N11" t="n">
-        <v>0.7178248763084412</v>
+        <v>0.7855001091957092</v>
       </c>
       <c r="O11" t="n">
         <v>10</v>
@@ -982,46 +982,46 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.1799633204936981</v>
+        <v>0.5930241942405701</v>
       </c>
       <c r="B12" t="n">
-        <v>0.774594783782959</v>
+        <v>0.759347677230835</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8497490882873535</v>
+        <v>0.800894558429718</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7084445357322693</v>
+        <v>0.7714453935623169</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9320016503334045</v>
+        <v>0.9530608654022217</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7849107980728149</v>
+        <v>0.7771296501159668</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7522008419036865</v>
+        <v>0.7465938925743103</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2269243746995926</v>
+        <v>0.4898186028003693</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7646222114562988</v>
+        <v>0.8137840628623962</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7587285041809082</v>
+        <v>0.7732891440391541</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7497937083244324</v>
+        <v>0.8447498679161072</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9420427680015564</v>
+        <v>0.973659336566925</v>
       </c>
       <c r="M12" t="n">
-        <v>0.7542594075202942</v>
+        <v>0.8074414730072021</v>
       </c>
       <c r="N12" t="n">
-        <v>0.7185432314872742</v>
+        <v>0.7830986380577087</v>
       </c>
       <c r="O12" t="n">
         <v>11</v>
@@ -1029,46 +1029,46 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.1691841036081314</v>
+        <v>0.5825167298316956</v>
       </c>
       <c r="B13" t="n">
-        <v>0.780322790145874</v>
+        <v>0.7587732076644897</v>
       </c>
       <c r="C13" t="n">
-        <v>0.863764226436615</v>
+        <v>0.8001258969306946</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7087048292160034</v>
+        <v>0.7728577256202698</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9347822070121765</v>
+        <v>0.9537516236305237</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7927335500717163</v>
+        <v>0.7769838571548462</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7604718804359436</v>
+        <v>0.7469828724861145</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2043774127960205</v>
+        <v>0.4781029522418976</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7763140201568604</v>
+        <v>0.8180010318756104</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7802405953407288</v>
+        <v>0.7779842019081116</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7629743218421936</v>
+        <v>0.8511704802513123</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9477982521057129</v>
+        <v>0.9755516648292542</v>
       </c>
       <c r="M13" t="n">
-        <v>0.771527886390686</v>
+        <v>0.8129334449768066</v>
       </c>
       <c r="N13" t="n">
-        <v>0.736726701259613</v>
+        <v>0.7889915704727173</v>
       </c>
       <c r="O13" t="n">
         <v>12</v>
@@ -1076,46 +1076,46 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1677160859107971</v>
+        <v>0.5657235980033875</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7848752737045288</v>
+        <v>0.7555309534072876</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8539432287216187</v>
+        <v>0.817331850528717</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7290760278701782</v>
+        <v>0.7618700265884399</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9418068528175354</v>
+        <v>0.9543709754943848</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7954120635986328</v>
+        <v>0.7787954211235046</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7638841867446899</v>
+        <v>0.7494556903839111</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2045327574014664</v>
+        <v>0.4745794236660004</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7788522243499756</v>
+        <v>0.8143701553344727</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8149269819259644</v>
+        <v>0.772409975528717</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7346153855323792</v>
+        <v>0.8490084409713745</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9450730085372925</v>
+        <v>0.9733905792236328</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7727102637290955</v>
+        <v>0.8088994026184082</v>
       </c>
       <c r="N14" t="n">
-        <v>0.7404050827026367</v>
+        <v>0.7842530608177185</v>
       </c>
       <c r="O14" t="n">
         <v>13</v>
@@ -1123,46 +1123,46 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.1609320789575577</v>
+        <v>0.5612534880638123</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7896523475646973</v>
+        <v>0.7601516246795654</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8683027625083923</v>
+        <v>0.7981352806091309</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7230835556983948</v>
+        <v>0.7684640288352966</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9422357678413391</v>
+        <v>0.9543847441673279</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8011505603790283</v>
+        <v>0.77480548620224</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7717337608337402</v>
+        <v>0.745532751083374</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2023758739233017</v>
+        <v>0.4546185731887817</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7803459167480469</v>
+        <v>0.8210397958755493</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7912014722824097</v>
+        <v>0.7851325869560242</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7544392347335815</v>
+        <v>0.8490854501724243</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9495049715042114</v>
+        <v>0.9759230017662048</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7724186182022095</v>
+        <v>0.8158576488494873</v>
       </c>
       <c r="N15" t="n">
-        <v>0.7397593259811401</v>
+        <v>0.7926584482192993</v>
       </c>
       <c r="O15" t="n">
         <v>14</v>
@@ -1170,46 +1170,46 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.1598360538482666</v>
+        <v>0.5505673885345459</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7878013849258423</v>
+        <v>0.7569220066070557</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8703601360321045</v>
+        <v>0.8069065809249878</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7193996906280518</v>
+        <v>0.7573704719543457</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9423879981040955</v>
+        <v>0.9540404677391052</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8003369569778442</v>
+        <v>0.7745921015739441</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7705228328704834</v>
+        <v>0.7453294992446899</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2002459913492203</v>
+        <v>0.4504185914993286</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7813131213188171</v>
+        <v>0.8233563899993896</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7746763229370117</v>
+        <v>0.7919005751609802</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7805103659629822</v>
+        <v>0.849468469619751</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9523774385452271</v>
+        <v>0.9767813086509705</v>
       </c>
       <c r="M16" t="n">
-        <v>0.7775989174842834</v>
+        <v>0.8196749687194824</v>
       </c>
       <c r="N16" t="n">
-        <v>0.7430627346038818</v>
+        <v>0.7958890199661255</v>
       </c>
       <c r="O16" t="n">
         <v>15</v>
@@ -1217,46 +1217,46 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.1585555225610733</v>
+        <v>0.5391749739646912</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7848024368286133</v>
+        <v>0.7566924691200256</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8726082444190979</v>
+        <v>0.8071734309196472</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7052632570266724</v>
+        <v>0.7558011412620544</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9388823509216309</v>
+        <v>0.9544652700424194</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7973285913467407</v>
+        <v>0.7738140821456909</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7670719623565674</v>
+        <v>0.744647204875946</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2011236995458603</v>
+        <v>0.4486609995365143</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7790099382400513</v>
+        <v>0.8175442218780518</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7861784696578979</v>
+        <v>0.7761802673339844</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7568190097808838</v>
+        <v>0.8517522811889648</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9523199200630188</v>
+        <v>0.9756261706352234</v>
       </c>
       <c r="M17" t="n">
-        <v>0.7712280750274658</v>
+        <v>0.8122121691703796</v>
       </c>
       <c r="N17" t="n">
-        <v>0.7389025688171387</v>
+        <v>0.7883985638618469</v>
       </c>
       <c r="O17" t="n">
         <v>16</v>
@@ -1264,46 +1264,46 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.1660979092121124</v>
+        <v>0.506314218044281</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7858874797821045</v>
+        <v>0.7695398330688477</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8599801063537598</v>
+        <v>0.8165982365608215</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7216406464576721</v>
+        <v>0.7642272114753723</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9426901936531067</v>
+        <v>0.9567322134971619</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7974210977554321</v>
+        <v>0.786498486995697</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7674258351325989</v>
+        <v>0.7577616572380066</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2036917805671692</v>
+        <v>0.4310381412506104</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7784625291824341</v>
+        <v>0.8198431134223938</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7808092832565308</v>
+        <v>0.7883230447769165</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7655712962150574</v>
+        <v>0.8451640009880066</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9517062902450562</v>
+        <v>0.9751843810081482</v>
       </c>
       <c r="M18" t="n">
-        <v>0.773129940032959</v>
+        <v>0.8157545328140259</v>
       </c>
       <c r="N18" t="n">
-        <v>0.740298867225647</v>
+        <v>0.7912126183509827</v>
       </c>
       <c r="O18" t="n">
         <v>17</v>
@@ -1311,46 +1311,46 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.1547556221485138</v>
+        <v>0.5040910243988037</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7828954458236694</v>
+        <v>0.7685174942016602</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8762882351875305</v>
+        <v>0.8065212368965149</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7103237509727478</v>
+        <v>0.775658130645752</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9422895908355713</v>
+        <v>0.9593039751052856</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7999707460403442</v>
+        <v>0.784393846988678</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7710502147674561</v>
+        <v>0.7558796405792236</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1946480870246887</v>
+        <v>0.4318861067295074</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7897341251373291</v>
+        <v>0.8162344694137573</v>
       </c>
       <c r="J19" t="n">
-        <v>0.7925441265106201</v>
+        <v>0.7709130644798279</v>
       </c>
       <c r="K19" t="n">
-        <v>0.7762539982795715</v>
+        <v>0.8548710346221924</v>
       </c>
       <c r="L19" t="n">
-        <v>0.9547843337059021</v>
+        <v>0.9771906733512878</v>
       </c>
       <c r="M19" t="n">
-        <v>0.7843234539031982</v>
+        <v>0.8107241988182068</v>
       </c>
       <c r="N19" t="n">
-        <v>0.7522963285446167</v>
+        <v>0.7869138717651367</v>
       </c>
       <c r="O19" t="n">
         <v>18</v>
@@ -1358,46 +1358,46 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1506670415401459</v>
+        <v>0.5002531409263611</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7874079942703247</v>
+        <v>0.7683008313179016</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8830336928367615</v>
+        <v>0.8112397789955139</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7146149873733521</v>
+        <v>0.767677366733551</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9456467032432556</v>
+        <v>0.955765962600708</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8045378923416138</v>
+        <v>0.7841840982437134</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7753500938415527</v>
+        <v>0.7556999325752258</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2016633301973343</v>
+        <v>0.4031610488891602</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7797386646270752</v>
+        <v>0.823403000831604</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8103752136230469</v>
+        <v>0.7821524739265442</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7405823469161987</v>
+        <v>0.8596872091293335</v>
       </c>
       <c r="L20" t="n">
-        <v>0.9470620155334473</v>
+        <v>0.9764041304588318</v>
       </c>
       <c r="M20" t="n">
-        <v>0.7739616632461548</v>
+        <v>0.8190890550613403</v>
       </c>
       <c r="N20" t="n">
-        <v>0.741576611995697</v>
+        <v>0.7963268160820007</v>
       </c>
       <c r="O20" t="n">
         <v>19</v>
@@ -1405,46 +1405,46 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.1461887061595917</v>
+        <v>0.4907074272632599</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7943251729011536</v>
+        <v>0.7658399343490601</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8804888725280762</v>
+        <v>0.8124538064002991</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7223970293998718</v>
+        <v>0.7715868949890137</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9454345703125</v>
+        <v>0.9593062400817871</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8089097738265991</v>
+        <v>0.7842559218406677</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7804441452026367</v>
+        <v>0.7563378810882568</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1927394717931747</v>
+        <v>0.408152848482132</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7854855060577393</v>
+        <v>0.8262579441070557</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7678643465042114</v>
+        <v>0.7861499786376953</v>
       </c>
       <c r="K21" t="n">
-        <v>0.79941725730896</v>
+        <v>0.865498423576355</v>
       </c>
       <c r="L21" t="n">
-        <v>0.9543859958648682</v>
+        <v>0.9787186980247498</v>
       </c>
       <c r="M21" t="n">
-        <v>0.7832936644554138</v>
+        <v>0.8239181637763977</v>
       </c>
       <c r="N21" t="n">
-        <v>0.7502119541168213</v>
+        <v>0.8005688786506653</v>
       </c>
       <c r="O21" t="n">
         <v>20</v>
@@ -1452,46 +1452,46 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.1490509659051895</v>
+        <v>0.4681944251060486</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7899996042251587</v>
+        <v>0.7751451730728149</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8732079863548279</v>
+        <v>0.8218016028404236</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7225720286369324</v>
+        <v>0.7748072147369385</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9494006037712097</v>
+        <v>0.9617109894752502</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8047942519187927</v>
+        <v>0.7934746742248535</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7761695384979248</v>
+        <v>0.7653728723526001</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2056836038827896</v>
+        <v>0.4073338806629181</v>
       </c>
       <c r="I22" t="n">
-        <v>0.77958083152771</v>
+        <v>0.8202491998672485</v>
       </c>
       <c r="J22" t="n">
-        <v>0.7697430849075317</v>
+        <v>0.7794141173362732</v>
       </c>
       <c r="K22" t="n">
-        <v>0.7756218314170837</v>
+        <v>0.8540250062942505</v>
       </c>
       <c r="L22" t="n">
-        <v>0.9513884782791138</v>
+        <v>0.9780206084251404</v>
       </c>
       <c r="M22" t="n">
-        <v>0.7726739645004272</v>
+        <v>0.8150163292884827</v>
       </c>
       <c r="N22" t="n">
-        <v>0.7395432591438293</v>
+        <v>0.7919123768806458</v>
       </c>
       <c r="O22" t="n">
         <v>21</v>
@@ -1499,46 +1499,46 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.143809512257576</v>
+        <v>0.4628826379776001</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7945284843444824</v>
+        <v>0.7749415636062622</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8857296705245972</v>
+        <v>0.8230303525924683</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7174332737922668</v>
+        <v>0.7753348350524902</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9491995573043823</v>
+        <v>0.9624228477478027</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8074679970741272</v>
+        <v>0.793841540813446</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7790970802307129</v>
+        <v>0.7664003968238831</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1845871955156326</v>
+        <v>0.4103952348232269</v>
       </c>
       <c r="I23" t="n">
-        <v>0.790885329246521</v>
+        <v>0.8214246034622192</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8008254766464233</v>
+        <v>0.7883454561233521</v>
       </c>
       <c r="K23" t="n">
-        <v>0.7756803035736084</v>
+        <v>0.8490226864814758</v>
       </c>
       <c r="L23" t="n">
-        <v>0.9576317667961121</v>
+        <v>0.9767637252807617</v>
       </c>
       <c r="M23" t="n">
-        <v>0.7880953550338745</v>
+        <v>0.8175597786903381</v>
       </c>
       <c r="N23" t="n">
-        <v>0.7560547590255737</v>
+        <v>0.7934138178825378</v>
       </c>
       <c r="O23" t="n">
         <v>22</v>
@@ -1546,46 +1546,46 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.1441550552845001</v>
+        <v>0.4567898809909821</v>
       </c>
       <c r="B24" t="n">
-        <v>0.795505166053772</v>
+        <v>0.773043155670166</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8886296153068542</v>
+        <v>0.829603910446167</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7201118469238281</v>
+        <v>0.7689380049705505</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9478753209114075</v>
+        <v>0.9629142284393311</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8098721504211426</v>
+        <v>0.7934815287590027</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7811684012413025</v>
+        <v>0.7659952640533447</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1971562057733536</v>
+        <v>0.3809927999973297</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7828054428100586</v>
+        <v>0.8269475698471069</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8072194457054138</v>
+        <v>0.7885313034057617</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7456626296043396</v>
+        <v>0.8601253628730774</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9501743316650391</v>
+        <v>0.9794406890869141</v>
       </c>
       <c r="M24" t="n">
-        <v>0.7752501368522644</v>
+        <v>0.822773814201355</v>
       </c>
       <c r="N24" t="n">
-        <v>0.744035542011261</v>
+        <v>0.8007618188858032</v>
       </c>
       <c r="O24" t="n">
         <v>23</v>
@@ -1593,46 +1593,46 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.1532855331897736</v>
+        <v>0.449274480342865</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7960293292999268</v>
+        <v>0.7761966586112976</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8760371804237366</v>
+        <v>0.8285258412361145</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7203617095947266</v>
+        <v>0.7780432105064392</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9471287131309509</v>
+        <v>0.9639307260513306</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8058160543441772</v>
+        <v>0.7974222898483276</v>
       </c>
       <c r="G25" t="n">
-        <v>0.778328001499176</v>
+        <v>0.770007312297821</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2056981176137924</v>
+        <v>0.3950225412845612</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7754665613174438</v>
+        <v>0.8217613101005554</v>
       </c>
       <c r="J25" t="n">
-        <v>0.7724009156227112</v>
+        <v>0.7803806662559509</v>
       </c>
       <c r="K25" t="n">
-        <v>0.760932445526123</v>
+        <v>0.8582272529602051</v>
       </c>
       <c r="L25" t="n">
-        <v>0.9481164813041687</v>
+        <v>0.9779717922210693</v>
       </c>
       <c r="M25" t="n">
-        <v>0.766638457775116</v>
+        <v>0.8174548149108887</v>
       </c>
       <c r="N25" t="n">
-        <v>0.7333800792694092</v>
+        <v>0.7942138910293579</v>
       </c>
       <c r="O25" t="n">
         <v>24</v>
@@ -1640,46 +1640,46 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.1496042907238007</v>
+        <v>0.4555308222770691</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7915335893630981</v>
+        <v>0.7767362594604492</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8830611109733582</v>
+        <v>0.8142178654670715</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7126578688621521</v>
+        <v>0.7835167050361633</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9448884129524231</v>
+        <v>0.9652122259140015</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8046762347221375</v>
+        <v>0.7921707034111023</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7765387296676636</v>
+        <v>0.7650966048240662</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1983474493026733</v>
+        <v>0.3964621424674988</v>
       </c>
       <c r="I26" t="n">
-        <v>0.7805913686752319</v>
+        <v>0.8209089636802673</v>
       </c>
       <c r="J26" t="n">
-        <v>0.7800480127334595</v>
+        <v>0.7681851387023926</v>
       </c>
       <c r="K26" t="n">
-        <v>0.7717253565788269</v>
+        <v>0.871428370475769</v>
       </c>
       <c r="L26" t="n">
-        <v>0.9537200927734375</v>
+        <v>0.9786532521247864</v>
       </c>
       <c r="M26" t="n">
-        <v>0.7758795022964478</v>
+        <v>0.8165562152862549</v>
       </c>
       <c r="N26" t="n">
-        <v>0.7430253028869629</v>
+        <v>0.7940168976783752</v>
       </c>
       <c r="O26" t="n">
         <v>25</v>
@@ -1687,46 +1687,46 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.1426761895418167</v>
+        <v>0.4365609884262085</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7921829223632812</v>
+        <v>0.780916154384613</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8838664889335632</v>
+        <v>0.8282480835914612</v>
       </c>
       <c r="D27" t="n">
-        <v>0.723257839679718</v>
+        <v>0.7793500423431396</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9499492645263672</v>
+        <v>0.9652358293533325</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8096708059310913</v>
+        <v>0.799950897693634</v>
       </c>
       <c r="G27" t="n">
-        <v>0.780903160572052</v>
+        <v>0.7729048728942871</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1867727786302567</v>
+        <v>0.3836702406406403</v>
       </c>
       <c r="I27" t="n">
-        <v>0.7877151966094971</v>
+        <v>0.8264181613922119</v>
       </c>
       <c r="J27" t="n">
-        <v>0.8018108606338501</v>
+        <v>0.7921899557113647</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7695363163948059</v>
+        <v>0.8594451546669006</v>
       </c>
       <c r="L27" t="n">
-        <v>0.9544699192047119</v>
+        <v>0.9784565567970276</v>
       </c>
       <c r="M27" t="n">
-        <v>0.7853452563285828</v>
+        <v>0.8244482278823853</v>
       </c>
       <c r="N27" t="n">
-        <v>0.7541474103927612</v>
+        <v>0.8005114793777466</v>
       </c>
       <c r="O27" t="n">
         <v>26</v>
@@ -1734,46 +1734,46 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.1395094692707062</v>
+        <v>0.4388576447963715</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7977570295333862</v>
+        <v>0.7806549072265625</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8825777769088745</v>
+        <v>0.8192004561424255</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7303254008293152</v>
+        <v>0.7814360857009888</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9516632556915283</v>
+        <v>0.9653828740119934</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8134556412696838</v>
+        <v>0.7964364886283875</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7856069803237915</v>
+        <v>0.7698358297348022</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1894821375608444</v>
+        <v>0.3895699977874756</v>
       </c>
       <c r="I28" t="n">
-        <v>0.785875678062439</v>
+        <v>0.8164079189300537</v>
       </c>
       <c r="J28" t="n">
-        <v>0.7704300284385681</v>
+        <v>0.7498487830162048</v>
       </c>
       <c r="K28" t="n">
-        <v>0.7984639406204224</v>
+        <v>0.8867649435997009</v>
       </c>
       <c r="L28" t="n">
-        <v>0.9568212032318115</v>
+        <v>0.9787803888320923</v>
       </c>
       <c r="M28" t="n">
-        <v>0.7842046618461609</v>
+        <v>0.8125797510147095</v>
       </c>
       <c r="N28" t="n">
-        <v>0.7510999441146851</v>
+        <v>0.7899562120437622</v>
       </c>
       <c r="O28" t="n">
         <v>27</v>
@@ -1781,46 +1781,46 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.1393009722232819</v>
+        <v>0.4419542253017426</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7978404760360718</v>
+        <v>0.7799977660179138</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8823269605636597</v>
+        <v>0.8197349309921265</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7368251085281372</v>
+        <v>0.7805487513542175</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9521787762641907</v>
+        <v>0.9649670720100403</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8147939443588257</v>
+        <v>0.7957617044448853</v>
       </c>
       <c r="G29" t="n">
-        <v>0.7873898148536682</v>
+        <v>0.7686560750007629</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1932316273450851</v>
+        <v>0.395862489938736</v>
       </c>
       <c r="I29" t="n">
-        <v>0.7867357134819031</v>
+        <v>0.8167403936386108</v>
       </c>
       <c r="J29" t="n">
-        <v>0.8036277294158936</v>
+        <v>0.761896014213562</v>
       </c>
       <c r="K29" t="n">
-        <v>0.752612829208374</v>
+        <v>0.8698543906211853</v>
       </c>
       <c r="L29" t="n">
-        <v>0.9537758827209473</v>
+        <v>0.9773490428924561</v>
       </c>
       <c r="M29" t="n">
-        <v>0.7773048281669617</v>
+        <v>0.8123038411140442</v>
       </c>
       <c r="N29" t="n">
-        <v>0.7471982836723328</v>
+        <v>0.7887898087501526</v>
       </c>
       <c r="O29" t="n">
         <v>28</v>
@@ -1828,46 +1828,46 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.138458788394928</v>
+        <v>0.436672180891037</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7988635301589966</v>
+        <v>0.7753646373748779</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8901868462562561</v>
+        <v>0.8315288424491882</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7232972383499146</v>
+        <v>0.7694732546806335</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9501915574073792</v>
+        <v>0.9647594094276428</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8146581649780273</v>
+        <v>0.7959603071212769</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7871059775352478</v>
+        <v>0.7691619992256165</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1975958347320557</v>
+        <v>0.389676958322525</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7803494930267334</v>
+        <v>0.8148244619369507</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7686254382133484</v>
+        <v>0.7552114129066467</v>
       </c>
       <c r="K30" t="n">
-        <v>0.7811959981918335</v>
+        <v>0.8699554204940796</v>
       </c>
       <c r="L30" t="n">
-        <v>0.9542754888534546</v>
+        <v>0.9787304401397705</v>
       </c>
       <c r="M30" t="n">
-        <v>0.7748597264289856</v>
+        <v>0.80853271484375</v>
       </c>
       <c r="N30" t="n">
-        <v>0.7412095069885254</v>
+        <v>0.7860903739929199</v>
       </c>
       <c r="O30" t="n">
         <v>29</v>
@@ -1875,46 +1875,46 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.1381385177373886</v>
+        <v>0.4342885315418243</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7931610345840454</v>
+        <v>0.7749544382095337</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8885042071342468</v>
+        <v>0.8318019509315491</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7209488153457642</v>
+        <v>0.771858274936676</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9480562806129456</v>
+        <v>0.9651501774787903</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8119203448295593</v>
+        <v>0.7965461611747742</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7837833166122437</v>
+        <v>0.7698343992233276</v>
       </c>
       <c r="H31" t="n">
-        <v>0.18628990650177</v>
+        <v>0.3945069015026093</v>
       </c>
       <c r="I31" t="n">
-        <v>0.7915361523628235</v>
+        <v>0.8137236833572388</v>
       </c>
       <c r="J31" t="n">
-        <v>0.8072900772094727</v>
+        <v>0.746807336807251</v>
       </c>
       <c r="K31" t="n">
-        <v>0.7679781913757324</v>
+        <v>0.8841769099235535</v>
       </c>
       <c r="L31" t="n">
-        <v>0.9554710388183594</v>
+        <v>0.9787577986717224</v>
       </c>
       <c r="M31" t="n">
-        <v>0.7871793508529663</v>
+        <v>0.8097071647644043</v>
       </c>
       <c r="N31" t="n">
-        <v>0.7569218873977661</v>
+        <v>0.786447286605835</v>
       </c>
       <c r="O31" t="n">
         <v>30</v>
@@ -1922,46 +1922,46 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.1346533298492432</v>
+        <v>0.4227672815322876</v>
       </c>
       <c r="B32" t="n">
-        <v>0.790604293346405</v>
+        <v>0.7734529972076416</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8937493562698364</v>
+        <v>0.8454247713088989</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7131413817405701</v>
+        <v>0.7724051475524902</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9504778981208801</v>
+        <v>0.9675994515419006</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8112235069274902</v>
+        <v>0.8014369606971741</v>
       </c>
       <c r="G32" t="n">
-        <v>0.7841575741767883</v>
+        <v>0.7747357487678528</v>
       </c>
       <c r="H32" t="n">
-        <v>0.219991147518158</v>
+        <v>0.3733338117599487</v>
       </c>
       <c r="I32" t="n">
-        <v>0.7666545510292053</v>
+        <v>0.8264138698577881</v>
       </c>
       <c r="J32" t="n">
-        <v>0.749059796333313</v>
+        <v>0.7848763465881348</v>
       </c>
       <c r="K32" t="n">
-        <v>0.7733815908432007</v>
+        <v>0.865468442440033</v>
       </c>
       <c r="L32" t="n">
-        <v>0.9474740624427795</v>
+        <v>0.9797029495239258</v>
       </c>
       <c r="M32" t="n">
-        <v>0.7610254287719727</v>
+        <v>0.8232045769691467</v>
       </c>
       <c r="N32" t="n">
-        <v>0.7236242294311523</v>
+        <v>0.800589919090271</v>
       </c>
       <c r="O32" t="n">
         <v>31</v>
@@ -1969,46 +1969,46 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.1320822834968567</v>
+        <v>0.4261035621166229</v>
       </c>
       <c r="B33" t="n">
-        <v>0.796890914440155</v>
+        <v>0.7803254127502441</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8919246196746826</v>
+        <v>0.8290374875068665</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7297658324241638</v>
+        <v>0.7761971950531006</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9550164937973022</v>
+        <v>0.966843843460083</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8175115585327148</v>
+        <v>0.7989780902862549</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7902981042861938</v>
+        <v>0.7725618481636047</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1988162398338318</v>
+        <v>0.3689390420913696</v>
       </c>
       <c r="I33" t="n">
-        <v>0.7786988019943237</v>
+        <v>0.829748272895813</v>
       </c>
       <c r="J33" t="n">
-        <v>0.8061543107032776</v>
+        <v>0.7967597842216492</v>
       </c>
       <c r="K33" t="n">
-        <v>0.7432087659835815</v>
+        <v>0.8614381551742554</v>
       </c>
       <c r="L33" t="n">
-        <v>0.950599730014801</v>
+        <v>0.9796586036682129</v>
       </c>
       <c r="M33" t="n">
-        <v>0.773378849029541</v>
+        <v>0.8278375864028931</v>
       </c>
       <c r="N33" t="n">
-        <v>0.7419807314872742</v>
+        <v>0.8047380447387695</v>
       </c>
       <c r="O33" t="n">
         <v>32</v>
@@ -2016,46 +2016,46 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.1347953975200653</v>
+        <v>0.4188047051429749</v>
       </c>
       <c r="B34" t="n">
-        <v>0.8007067441940308</v>
+        <v>0.7774326205253601</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8882274031639099</v>
+        <v>0.8411371111869812</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7359461188316345</v>
+        <v>0.7715749740600586</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9534596800804138</v>
+        <v>0.9672834277153015</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8194487690925598</v>
+        <v>0.8017753958702087</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7918866276741028</v>
+        <v>0.7755869030952454</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1932193040847778</v>
+        <v>0.37340447306633</v>
       </c>
       <c r="I34" t="n">
-        <v>0.7827225923538208</v>
+        <v>0.8252882957458496</v>
       </c>
       <c r="J34" t="n">
-        <v>0.8110153675079346</v>
+        <v>0.7818431854248047</v>
       </c>
       <c r="K34" t="n">
-        <v>0.7452201843261719</v>
+        <v>0.8672654628753662</v>
       </c>
       <c r="L34" t="n">
-        <v>0.9534337520599365</v>
+        <v>0.978477418422699</v>
       </c>
       <c r="M34" t="n">
-        <v>0.776740550994873</v>
+        <v>0.8223419189453125</v>
       </c>
       <c r="N34" t="n">
-        <v>0.7459078431129456</v>
+        <v>0.7993668913841248</v>
       </c>
       <c r="O34" t="n">
         <v>33</v>
@@ -2063,46 +2063,46 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.1360630244016647</v>
+        <v>0.411096602678299</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8033730983734131</v>
+        <v>0.7787280082702637</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8893586993217468</v>
+        <v>0.8444599509239197</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7276474833488464</v>
+        <v>0.7721598744392395</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9517247676849365</v>
+        <v>0.9688659906387329</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8175316452980042</v>
+        <v>0.8043837547302246</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7910275459289551</v>
+        <v>0.7784560322761536</v>
       </c>
       <c r="H35" t="n">
-        <v>0.18281190097332</v>
+        <v>0.3726120889186859</v>
       </c>
       <c r="I35" t="n">
-        <v>0.79033362865448</v>
+        <v>0.8221364617347717</v>
       </c>
       <c r="J35" t="n">
-        <v>0.7819837331771851</v>
+        <v>0.7734774351119995</v>
       </c>
       <c r="K35" t="n">
-        <v>0.796087384223938</v>
+        <v>0.8674941062927246</v>
       </c>
       <c r="L35" t="n">
-        <v>0.9597569704055786</v>
+        <v>0.9784364700317383</v>
       </c>
       <c r="M35" t="n">
-        <v>0.7889864444732666</v>
+        <v>0.8177924752235413</v>
       </c>
       <c r="N35" t="n">
-        <v>0.7573031187057495</v>
+        <v>0.7952440977096558</v>
       </c>
       <c r="O35" t="n">
         <v>34</v>
@@ -2110,46 +2110,46 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.1365522146224976</v>
+        <v>0.4127916991710663</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8047458529472351</v>
+        <v>0.7845315337181091</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8860008120536804</v>
+        <v>0.8278952836990356</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7354298233985901</v>
+        <v>0.786382257938385</v>
       </c>
       <c r="E36" t="n">
-        <v>0.954799473285675</v>
+        <v>0.9697824120521545</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8182780146598816</v>
+        <v>0.8025366067886353</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7915160655975342</v>
+        <v>0.7768874168395996</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1890760511159897</v>
+        <v>0.3685302436351776</v>
       </c>
       <c r="I36" t="n">
-        <v>0.7877146601676941</v>
+        <v>0.8260914087295532</v>
       </c>
       <c r="J36" t="n">
-        <v>0.8077273964881897</v>
+        <v>0.778471052646637</v>
       </c>
       <c r="K36" t="n">
-        <v>0.7567149996757507</v>
+        <v>0.8757311105728149</v>
       </c>
       <c r="L36" t="n">
-        <v>0.9542459845542908</v>
+        <v>0.98045814037323</v>
       </c>
       <c r="M36" t="n">
-        <v>0.7813822031021118</v>
+        <v>0.8242418169975281</v>
       </c>
       <c r="N36" t="n">
-        <v>0.7512536644935608</v>
+        <v>0.8011131286621094</v>
       </c>
       <c r="O36" t="n">
         <v>35</v>
@@ -2157,46 +2157,46 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.1293117702007294</v>
+        <v>0.4013136327266693</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7956364154815674</v>
+        <v>0.7859172224998474</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8954014778137207</v>
+        <v>0.8361585736274719</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7338159084320068</v>
+        <v>0.7844529151916504</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9551571011543274</v>
+        <v>0.9705853462219238</v>
       </c>
       <c r="F37" t="n">
-        <v>0.821754515171051</v>
+        <v>0.8067578077316284</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7953417897224426</v>
+        <v>0.7812913060188293</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1895873695611954</v>
+        <v>0.3858808875083923</v>
       </c>
       <c r="I37" t="n">
-        <v>0.7892799973487854</v>
+        <v>0.8151142597198486</v>
       </c>
       <c r="J37" t="n">
-        <v>0.8063170313835144</v>
+        <v>0.7582269906997681</v>
       </c>
       <c r="K37" t="n">
-        <v>0.7612282037734985</v>
+        <v>0.8696144223213196</v>
       </c>
       <c r="L37" t="n">
-        <v>0.9554235339164734</v>
+        <v>0.9776186347007751</v>
       </c>
       <c r="M37" t="n">
-        <v>0.7831441164016724</v>
+        <v>0.8101097941398621</v>
       </c>
       <c r="N37" t="n">
-        <v>0.7528746128082275</v>
+        <v>0.7866718769073486</v>
       </c>
       <c r="O37" t="n">
         <v>36</v>
@@ -2204,46 +2204,46 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.1329849064350128</v>
+        <v>0.4086954593658447</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8018045425415039</v>
+        <v>0.7822638154029846</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8888094425201416</v>
+        <v>0.8389406800270081</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7477455139160156</v>
+        <v>0.7741609811782837</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9566757678985596</v>
+        <v>0.9693173170089722</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8235419392585754</v>
+        <v>0.8034392595291138</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7969508767127991</v>
+        <v>0.7776359915733337</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1835864782333374</v>
+        <v>0.3610397279262543</v>
       </c>
       <c r="I38" t="n">
-        <v>0.7916647791862488</v>
+        <v>0.8313809633255005</v>
       </c>
       <c r="J38" t="n">
-        <v>0.8038333058357239</v>
+        <v>0.8068130016326904</v>
       </c>
       <c r="K38" t="n">
-        <v>0.7749307155609131</v>
+        <v>0.8509929776191711</v>
       </c>
       <c r="L38" t="n">
-        <v>0.9565958380699158</v>
+        <v>0.9785168766975403</v>
       </c>
       <c r="M38" t="n">
-        <v>0.789150595664978</v>
+        <v>0.8283143043518066</v>
       </c>
       <c r="N38" t="n">
-        <v>0.7571299076080322</v>
+        <v>0.8061097264289856</v>
       </c>
       <c r="O38" t="n">
         <v>37</v>
@@ -2251,46 +2251,46 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.1257289350032806</v>
+        <v>0.3979266881942749</v>
       </c>
       <c r="B39" t="n">
-        <v>0.8063206672668457</v>
+        <v>0.7907236814498901</v>
       </c>
       <c r="C39" t="n">
-        <v>0.8955471515655518</v>
+        <v>0.8305748105049133</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7403796315193176</v>
+        <v>0.7973021864891052</v>
       </c>
       <c r="E39" t="n">
-        <v>0.957273006439209</v>
+        <v>0.9733371734619141</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8252097368240356</v>
+        <v>0.8101183772087097</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7991718053817749</v>
+        <v>0.7843409180641174</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1868656873703003</v>
+        <v>0.3635264933109283</v>
       </c>
       <c r="I39" t="n">
-        <v>0.7865877151489258</v>
+        <v>0.8279244899749756</v>
       </c>
       <c r="J39" t="n">
-        <v>0.8065354228019714</v>
+        <v>0.7864961624145508</v>
       </c>
       <c r="K39" t="n">
-        <v>0.7595574855804443</v>
+        <v>0.8679458498954773</v>
       </c>
       <c r="L39" t="n">
-        <v>0.9567045569419861</v>
+        <v>0.9801501631736755</v>
       </c>
       <c r="M39" t="n">
-        <v>0.7824130058288574</v>
+        <v>0.8252160549163818</v>
       </c>
       <c r="N39" t="n">
-        <v>0.751257061958313</v>
+        <v>0.8026866912841797</v>
       </c>
       <c r="O39" t="n">
         <v>38</v>
@@ -2298,46 +2298,46 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.1265311241149902</v>
+        <v>0.403805285692215</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8118304014205933</v>
+        <v>0.7835313677787781</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8958779573440552</v>
+        <v>0.8376420736312866</v>
       </c>
       <c r="D40" t="n">
-        <v>0.741739809513092</v>
+        <v>0.781940758228302</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9557491540908813</v>
+        <v>0.9703153967857361</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8282619714736938</v>
+        <v>0.8059713840484619</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8022071123123169</v>
+        <v>0.7803656458854675</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1925012469291687</v>
+        <v>0.3627601563930511</v>
       </c>
       <c r="I40" t="n">
-        <v>0.7869544625282288</v>
+        <v>0.8289300799369812</v>
       </c>
       <c r="J40" t="n">
-        <v>0.769628643989563</v>
+        <v>0.7876031398773193</v>
       </c>
       <c r="K40" t="n">
-        <v>0.7967203259468079</v>
+        <v>0.872585117816925</v>
       </c>
       <c r="L40" t="n">
-        <v>0.9548444151878357</v>
+        <v>0.9798252582550049</v>
       </c>
       <c r="M40" t="n">
-        <v>0.782991886138916</v>
+        <v>0.827919065952301</v>
       </c>
       <c r="N40" t="n">
-        <v>0.7500894665718079</v>
+        <v>0.8045181035995483</v>
       </c>
       <c r="O40" t="n">
         <v>39</v>
@@ -2345,46 +2345,46 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.1291689425706863</v>
+        <v>0.3948754072189331</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8101643323898315</v>
+        <v>0.7840321660041809</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8953521847724915</v>
+        <v>0.8444370031356812</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7493283152580261</v>
+        <v>0.782751202583313</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9566435217857361</v>
+        <v>0.9726602435112</v>
       </c>
       <c r="F41" t="n">
-        <v>0.8300007581710815</v>
+        <v>0.8095070719718933</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8039836883544922</v>
+        <v>0.7838295102119446</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1904067248106003</v>
+        <v>0.3650446832180023</v>
       </c>
       <c r="I41" t="n">
-        <v>0.7881451845169067</v>
+        <v>0.8260294795036316</v>
       </c>
       <c r="J41" t="n">
-        <v>0.8358289003372192</v>
+        <v>0.7830708026885986</v>
       </c>
       <c r="K41" t="n">
-        <v>0.72950279712677</v>
+        <v>0.8705424070358276</v>
       </c>
       <c r="L41" t="n">
-        <v>0.9571688771247864</v>
+        <v>0.9800081253051758</v>
       </c>
       <c r="M41" t="n">
-        <v>0.7790775299072266</v>
+        <v>0.8244931101799011</v>
       </c>
       <c r="N41" t="n">
-        <v>0.7521748542785645</v>
+        <v>0.8007493615150452</v>
       </c>
       <c r="O41" t="n">
         <v>40</v>
@@ -2392,46 +2392,46 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.1273479163646698</v>
+        <v>0.3993005752563477</v>
       </c>
       <c r="B42" t="n">
-        <v>0.8062357306480408</v>
+        <v>0.7829582691192627</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8971778750419617</v>
+        <v>0.8407014012336731</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7346383929252625</v>
+        <v>0.7849588394165039</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9566259980201721</v>
+        <v>0.972400963306427</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8245640397071838</v>
+        <v>0.8067790865898132</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7980465888977051</v>
+        <v>0.7814942598342896</v>
       </c>
       <c r="H42" t="n">
-        <v>0.1886626034975052</v>
+        <v>0.3593542873859406</v>
       </c>
       <c r="I42" t="n">
-        <v>0.7857934236526489</v>
+        <v>0.8309090137481689</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7981515526771545</v>
+        <v>0.7965996861457825</v>
       </c>
       <c r="K42" t="n">
-        <v>0.768196165561676</v>
+        <v>0.8652985692024231</v>
       </c>
       <c r="L42" t="n">
-        <v>0.955574095249176</v>
+        <v>0.9804659485816956</v>
       </c>
       <c r="M42" t="n">
-        <v>0.782885730266571</v>
+        <v>0.8295291662216187</v>
       </c>
       <c r="N42" t="n">
-        <v>0.7506638169288635</v>
+        <v>0.8064618706703186</v>
       </c>
       <c r="O42" t="n">
         <v>41</v>
@@ -2439,46 +2439,46 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.1250544637441635</v>
+        <v>0.3991634845733643</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8042903542518616</v>
+        <v>0.7862741947174072</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8978473544120789</v>
+        <v>0.8362101912498474</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7327040433883667</v>
+        <v>0.7774935364723206</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9568430781364441</v>
+        <v>0.9704949259757996</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8244223594665527</v>
+        <v>0.8052517175674438</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7983013987541199</v>
+        <v>0.7804141044616699</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1958464831113815</v>
+        <v>0.3593894839286804</v>
       </c>
       <c r="I43" t="n">
-        <v>0.7834678888320923</v>
+        <v>0.8251035809516907</v>
       </c>
       <c r="J43" t="n">
-        <v>0.7899867296218872</v>
+        <v>0.773865818977356</v>
       </c>
       <c r="K43" t="n">
-        <v>0.7653026580810547</v>
+        <v>0.8769793510437012</v>
       </c>
       <c r="L43" t="n">
-        <v>0.9546384811401367</v>
+        <v>0.9800190925598145</v>
       </c>
       <c r="M43" t="n">
-        <v>0.7774451971054077</v>
+        <v>0.8222023248672485</v>
       </c>
       <c r="N43" t="n">
-        <v>0.745854914188385</v>
+        <v>0.7998061180114746</v>
       </c>
       <c r="O43" t="n">
         <v>42</v>
@@ -2486,46 +2486,46 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.127517431974411</v>
+        <v>0.3859899938106537</v>
       </c>
       <c r="B44" t="n">
-        <v>0.8102779388427734</v>
+        <v>0.7894259691238403</v>
       </c>
       <c r="C44" t="n">
-        <v>0.8927444815635681</v>
+        <v>0.8507220149040222</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7457110285758972</v>
+        <v>0.7836032509803772</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9575281739234924</v>
+        <v>0.9723063111305237</v>
       </c>
       <c r="F44" t="n">
-        <v>0.8270108699798584</v>
+        <v>0.8145677447319031</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8009880185127258</v>
+        <v>0.7892996668815613</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1883082836866379</v>
+        <v>0.370630145072937</v>
       </c>
       <c r="I44" t="n">
-        <v>0.7863085269927979</v>
+        <v>0.8219318389892578</v>
       </c>
       <c r="J44" t="n">
-        <v>0.7936027050018311</v>
+        <v>0.7788880467414856</v>
       </c>
       <c r="K44" t="n">
-        <v>0.7718765139579773</v>
+        <v>0.8596661686897278</v>
       </c>
       <c r="L44" t="n">
-        <v>0.9558875560760498</v>
+        <v>0.9779386520385742</v>
       </c>
       <c r="M44" t="n">
-        <v>0.7826013565063477</v>
+        <v>0.81728595495224</v>
       </c>
       <c r="N44" t="n">
-        <v>0.7508413195610046</v>
+        <v>0.7944393754005432</v>
       </c>
       <c r="O44" t="n">
         <v>43</v>
@@ -2533,46 +2533,46 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.1219930574297905</v>
+        <v>0.3872458636760712</v>
       </c>
       <c r="B45" t="n">
-        <v>0.8113291263580322</v>
+        <v>0.7874268293380737</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8984072208404541</v>
+        <v>0.8406634330749512</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7474855780601501</v>
+        <v>0.7895188927650452</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9587922692298889</v>
+        <v>0.974511444568634</v>
       </c>
       <c r="F45" t="n">
-        <v>0.832064688205719</v>
+        <v>0.8113082051277161</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8062174916267395</v>
+        <v>0.7864998579025269</v>
       </c>
       <c r="H45" t="n">
-        <v>0.193636491894722</v>
+        <v>0.3629797101020813</v>
       </c>
       <c r="I45" t="n">
-        <v>0.7831975221633911</v>
+        <v>0.8254977464675903</v>
       </c>
       <c r="J45" t="n">
-        <v>0.8080843687057495</v>
+        <v>0.7850042581558228</v>
       </c>
       <c r="K45" t="n">
-        <v>0.7456821799278259</v>
+        <v>0.8621388673782349</v>
       </c>
       <c r="L45" t="n">
-        <v>0.9530411958694458</v>
+        <v>0.9790207147598267</v>
       </c>
       <c r="M45" t="n">
-        <v>0.7756234407424927</v>
+        <v>0.8217654824256897</v>
       </c>
       <c r="N45" t="n">
-        <v>0.745200514793396</v>
+        <v>0.7991682887077332</v>
       </c>
       <c r="O45" t="n">
         <v>44</v>
@@ -2580,46 +2580,46 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.122683048248291</v>
+        <v>0.387439489364624</v>
       </c>
       <c r="B46" t="n">
-        <v>0.8084254860877991</v>
+        <v>0.7886421680450439</v>
       </c>
       <c r="C46" t="n">
-        <v>0.8975414037704468</v>
+        <v>0.8410524129867554</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7400554418563843</v>
+        <v>0.787878692150116</v>
       </c>
       <c r="E46" t="n">
-        <v>0.956811785697937</v>
+        <v>0.9730719923973083</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8279010653495789</v>
+        <v>0.8114112019538879</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8022517561912537</v>
+        <v>0.7863838672637939</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1906919032335281</v>
+        <v>0.3738510608673096</v>
       </c>
       <c r="I46" t="n">
-        <v>0.7874219417572021</v>
+        <v>0.8264796733856201</v>
       </c>
       <c r="J46" t="n">
-        <v>0.7884196043014526</v>
+        <v>0.8020933270454407</v>
       </c>
       <c r="K46" t="n">
-        <v>0.7762256860733032</v>
+        <v>0.8459482192993164</v>
       </c>
       <c r="L46" t="n">
-        <v>0.9553664922714233</v>
+        <v>0.9766440987586975</v>
       </c>
       <c r="M46" t="n">
-        <v>0.7823134660720825</v>
+        <v>0.8234372735023499</v>
       </c>
       <c r="N46" t="n">
-        <v>0.7504051923751831</v>
+        <v>0.7998049855232239</v>
       </c>
       <c r="O46" t="n">
         <v>45</v>
@@ -2627,46 +2627,46 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.118035115301609</v>
+        <v>0.3927110433578491</v>
       </c>
       <c r="B47" t="n">
-        <v>0.8062021136283875</v>
+        <v>0.7853513360023499</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9038591384887695</v>
+        <v>0.8411562442779541</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7445080280303955</v>
+        <v>0.7821113467216492</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9596914052963257</v>
+        <v>0.9725006818771362</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8320820927619934</v>
+        <v>0.8082364201545715</v>
       </c>
       <c r="G47" t="n">
-        <v>0.8060190677642822</v>
+        <v>0.7831497192382812</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1781100779771805</v>
+        <v>0.364734947681427</v>
       </c>
       <c r="I47" t="n">
-        <v>0.7928362488746643</v>
+        <v>0.8241622447967529</v>
       </c>
       <c r="J47" t="n">
-        <v>0.7802607417106628</v>
+        <v>0.7763692140579224</v>
       </c>
       <c r="K47" t="n">
-        <v>0.8088998198509216</v>
+        <v>0.8713820576667786</v>
       </c>
       <c r="L47" t="n">
-        <v>0.9595391750335693</v>
+        <v>0.9786795377731323</v>
       </c>
       <c r="M47" t="n">
-        <v>0.7943568825721741</v>
+        <v>0.8211362957954407</v>
       </c>
       <c r="N47" t="n">
-        <v>0.7617958188056946</v>
+        <v>0.7982410192489624</v>
       </c>
       <c r="O47" t="n">
         <v>46</v>
@@ -2674,46 +2674,46 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.1256863921880722</v>
+        <v>0.3854851126670837</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8046714663505554</v>
+        <v>0.7885669469833374</v>
       </c>
       <c r="C48" t="n">
-        <v>0.8956238031387329</v>
+        <v>0.8343268632888794</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7492645382881165</v>
+        <v>0.7910673022270203</v>
       </c>
       <c r="E48" t="n">
-        <v>0.959683895111084</v>
+        <v>0.9741558432579041</v>
       </c>
       <c r="F48" t="n">
-        <v>0.82896488904953</v>
+        <v>0.808859646320343</v>
       </c>
       <c r="G48" t="n">
-        <v>0.8031259775161743</v>
+        <v>0.784737229347229</v>
       </c>
       <c r="H48" t="n">
-        <v>0.1942808479070663</v>
+        <v>0.3629568219184875</v>
       </c>
       <c r="I48" t="n">
-        <v>0.7830491065979004</v>
+        <v>0.8252704739570618</v>
       </c>
       <c r="J48" t="n">
-        <v>0.775409996509552</v>
+        <v>0.7847145199775696</v>
       </c>
       <c r="K48" t="n">
-        <v>0.7779942750930786</v>
+        <v>0.8618239164352417</v>
       </c>
       <c r="L48" t="n">
-        <v>0.955771803855896</v>
+        <v>0.9784647822380066</v>
       </c>
       <c r="M48" t="n">
-        <v>0.7767140865325928</v>
+        <v>0.8214636445045471</v>
       </c>
       <c r="N48" t="n">
-        <v>0.7446800470352173</v>
+        <v>0.7988554239273071</v>
       </c>
       <c r="O48" t="n">
         <v>47</v>
@@ -2721,46 +2721,46 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.1180785596370697</v>
+        <v>0.385412722826004</v>
       </c>
       <c r="B49" t="n">
-        <v>0.814456045627594</v>
+        <v>0.7859632968902588</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9015123844146729</v>
+        <v>0.8420747518539429</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7424103021621704</v>
+        <v>0.7823098301887512</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9580411314964294</v>
+        <v>0.972528874874115</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8324565887451172</v>
+        <v>0.8100718259811401</v>
       </c>
       <c r="G49" t="n">
-        <v>0.8070160746574402</v>
+        <v>0.7854607105255127</v>
       </c>
       <c r="H49" t="n">
-        <v>0.1878581792116165</v>
+        <v>0.3660374581813812</v>
       </c>
       <c r="I49" t="n">
-        <v>0.7887492775917053</v>
+        <v>0.8260262608528137</v>
       </c>
       <c r="J49" t="n">
-        <v>0.7820801734924316</v>
+        <v>0.7866847515106201</v>
       </c>
       <c r="K49" t="n">
-        <v>0.7905045747756958</v>
+        <v>0.8648797869682312</v>
       </c>
       <c r="L49" t="n">
-        <v>0.956256628036499</v>
+        <v>0.9791871905326843</v>
       </c>
       <c r="M49" t="n">
-        <v>0.7862676382064819</v>
+        <v>0.8239311575889587</v>
       </c>
       <c r="N49" t="n">
-        <v>0.7539740800857544</v>
+        <v>0.8002956509590149</v>
       </c>
       <c r="O49" t="n">
         <v>48</v>
@@ -2768,46 +2768,46 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.1206980273127556</v>
+        <v>0.3783593773841858</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8061892986297607</v>
+        <v>0.7938271164894104</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9018940925598145</v>
+        <v>0.8388205766677856</v>
       </c>
       <c r="D50" t="n">
-        <v>0.739002525806427</v>
+        <v>0.7953161001205444</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9587104916572571</v>
+        <v>0.9751575589179993</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8305379152297974</v>
+        <v>0.8148879408836365</v>
       </c>
       <c r="G50" t="n">
-        <v>0.8051814436912537</v>
+        <v>0.790277361869812</v>
       </c>
       <c r="H50" t="n">
-        <v>0.1889931708574295</v>
+        <v>0.3731716871261597</v>
       </c>
       <c r="I50" t="n">
-        <v>0.786187469959259</v>
+        <v>0.8215512037277222</v>
       </c>
       <c r="J50" t="n">
-        <v>0.8151955604553223</v>
+        <v>0.7846206426620483</v>
       </c>
       <c r="K50" t="n">
-        <v>0.7482186555862427</v>
+        <v>0.8512071967124939</v>
       </c>
       <c r="L50" t="n">
-        <v>0.9555076956748962</v>
+        <v>0.9767256379127502</v>
       </c>
       <c r="M50" t="n">
-        <v>0.7802903652191162</v>
+        <v>0.8165587186813354</v>
       </c>
       <c r="N50" t="n">
-        <v>0.7502055168151855</v>
+        <v>0.793439507484436</v>
       </c>
       <c r="O50" t="n">
         <v>49</v>
@@ -2815,46 +2815,46 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.1207497045397758</v>
+        <v>0.3826361000537872</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8065727949142456</v>
+        <v>0.7813552618026733</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9027767777442932</v>
+        <v>0.8574767112731934</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7392954230308533</v>
+        <v>0.7796021699905396</v>
       </c>
       <c r="E51" t="n">
-        <v>0.958570122718811</v>
+        <v>0.9739783406257629</v>
       </c>
       <c r="F51" t="n">
-        <v>0.8303948044776917</v>
+        <v>0.8124191761016846</v>
       </c>
       <c r="G51" t="n">
-        <v>0.8052827715873718</v>
+        <v>0.787690281867981</v>
       </c>
       <c r="H51" t="n">
-        <v>0.1858916282653809</v>
+        <v>0.3646989166736603</v>
       </c>
       <c r="I51" t="n">
-        <v>0.790833592414856</v>
+        <v>0.8209188580513</v>
       </c>
       <c r="J51" t="n">
-        <v>0.8196836709976196</v>
+        <v>0.7656430006027222</v>
       </c>
       <c r="K51" t="n">
-        <v>0.7524846196174622</v>
+        <v>0.8739734888076782</v>
       </c>
       <c r="L51" t="n">
-        <v>0.9570809602737427</v>
+        <v>0.9789362549781799</v>
       </c>
       <c r="M51" t="n">
-        <v>0.7846852540969849</v>
+        <v>0.816229522228241</v>
       </c>
       <c r="N51" t="n">
-        <v>0.7557715773582458</v>
+        <v>0.7941538095474243</v>
       </c>
       <c r="O51" t="n">
         <v>50</v>
@@ -2862,46 +2862,46 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.117556594312191</v>
+        <v>0.3763194680213928</v>
       </c>
       <c r="B52" t="n">
-        <v>0.8135923147201538</v>
+        <v>0.7886185646057129</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8992443680763245</v>
+        <v>0.8442311882972717</v>
       </c>
       <c r="D52" t="n">
-        <v>0.7546698451042175</v>
+        <v>0.7906000018119812</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9619898796081543</v>
+        <v>0.97464919090271</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8363311290740967</v>
+        <v>0.8137997984886169</v>
       </c>
       <c r="G52" t="n">
-        <v>0.8113196492195129</v>
+        <v>0.7895414233207703</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1956600099802017</v>
+        <v>0.3659412860870361</v>
       </c>
       <c r="I52" t="n">
-        <v>0.7834676504135132</v>
+        <v>0.82708340883255</v>
       </c>
       <c r="J52" t="n">
-        <v>0.763306200504303</v>
+        <v>0.8124760985374451</v>
       </c>
       <c r="K52" t="n">
-        <v>0.7999770045280457</v>
+        <v>0.8308904767036438</v>
       </c>
       <c r="L52" t="n">
-        <v>0.9553336501121521</v>
+        <v>0.9777873158454895</v>
       </c>
       <c r="M52" t="n">
-        <v>0.781216025352478</v>
+        <v>0.8215801119804382</v>
       </c>
       <c r="N52" t="n">
-        <v>0.7474854588508606</v>
+        <v>0.7996631860733032</v>
       </c>
       <c r="O52" t="n">
         <v>51</v>
@@ -2909,46 +2909,46 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.116062805056572</v>
+        <v>0.3723774254322052</v>
       </c>
       <c r="B53" t="n">
-        <v>0.815604031085968</v>
+        <v>0.7910139560699463</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9030850529670715</v>
+        <v>0.8488791584968567</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7527643442153931</v>
+        <v>0.7889561057090759</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9596600532531738</v>
+        <v>0.9750320315361023</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8370922207832336</v>
+        <v>0.815807044506073</v>
       </c>
       <c r="G53" t="n">
-        <v>0.8122299909591675</v>
+        <v>0.7917481660842896</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1951930075883865</v>
+        <v>0.3669949769973755</v>
       </c>
       <c r="I53" t="n">
-        <v>0.7824079990386963</v>
+        <v>0.8266785740852356</v>
       </c>
       <c r="J53" t="n">
-        <v>0.774040699005127</v>
+        <v>0.7993554472923279</v>
       </c>
       <c r="K53" t="n">
-        <v>0.782956600189209</v>
+        <v>0.8474195599555969</v>
       </c>
       <c r="L53" t="n">
-        <v>0.9551461935043335</v>
+        <v>0.9769664406776428</v>
       </c>
       <c r="M53" t="n">
-        <v>0.7784647345542908</v>
+        <v>0.8226860761642456</v>
       </c>
       <c r="N53" t="n">
-        <v>0.7455531358718872</v>
+        <v>0.7999039888381958</v>
       </c>
       <c r="O53" t="n">
         <v>52</v>
@@ -2956,46 +2956,46 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.1153717413544655</v>
+        <v>0.3722086846828461</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8131940364837646</v>
+        <v>0.793982982635498</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9028093218803406</v>
+        <v>0.8470285534858704</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7569848895072937</v>
+        <v>0.7886396050453186</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9638871550559998</v>
+        <v>0.9747865796089172</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8380326628684998</v>
+        <v>0.8168518543243408</v>
       </c>
       <c r="G54" t="n">
-        <v>0.8130301237106323</v>
+        <v>0.7925681471824646</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1879097819328308</v>
+        <v>0.3655185997486115</v>
       </c>
       <c r="I54" t="n">
-        <v>0.7884501218795776</v>
+        <v>0.821405291557312</v>
       </c>
       <c r="J54" t="n">
-        <v>0.7837257981300354</v>
+        <v>0.7635321617126465</v>
       </c>
       <c r="K54" t="n">
-        <v>0.7916354537010193</v>
+        <v>0.8816196918487549</v>
       </c>
       <c r="L54" t="n">
-        <v>0.9574122428894043</v>
+        <v>0.9779978394508362</v>
       </c>
       <c r="M54" t="n">
-        <v>0.7876471281051636</v>
+        <v>0.8183377981185913</v>
       </c>
       <c r="N54" t="n">
-        <v>0.7550892233848572</v>
+        <v>0.7956594228744507</v>
       </c>
       <c r="O54" t="n">
         <v>53</v>
@@ -3003,46 +3003,46 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.1143706291913986</v>
+        <v>0.370675802230835</v>
       </c>
       <c r="B55" t="n">
-        <v>0.821271538734436</v>
+        <v>0.791927695274353</v>
       </c>
       <c r="C55" t="n">
-        <v>0.900489866733551</v>
+        <v>0.8491893410682678</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7635871171951294</v>
+        <v>0.7953528165817261</v>
       </c>
       <c r="E55" t="n">
-        <v>0.963727593421936</v>
+        <v>0.9754353761672974</v>
       </c>
       <c r="F55" t="n">
-        <v>0.842510998249054</v>
+        <v>0.8182403445243835</v>
       </c>
       <c r="G55" t="n">
-        <v>0.8177153468132019</v>
+        <v>0.7938703298568726</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1825950592756271</v>
+        <v>0.373577892780304</v>
       </c>
       <c r="I55" t="n">
-        <v>0.7920526266098022</v>
+        <v>0.8202641606330872</v>
       </c>
       <c r="J55" t="n">
-        <v>0.8024386763572693</v>
+        <v>0.7684124112129211</v>
       </c>
       <c r="K55" t="n">
-        <v>0.7799592018127441</v>
+        <v>0.8719196915626526</v>
       </c>
       <c r="L55" t="n">
-        <v>0.9580099582672119</v>
+        <v>0.9763972759246826</v>
       </c>
       <c r="M55" t="n">
-        <v>0.7910694479942322</v>
+        <v>0.8169003129005432</v>
       </c>
       <c r="N55" t="n">
-        <v>0.7595140933990479</v>
+        <v>0.7934566736221313</v>
       </c>
       <c r="O55" t="n">
         <v>54</v>
@@ -3050,46 +3050,46 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.1148323491215706</v>
+        <v>0.3629327416419983</v>
       </c>
       <c r="B56" t="n">
-        <v>0.8139054775238037</v>
+        <v>0.8002357482910156</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9050493836402893</v>
+        <v>0.8439351916313171</v>
       </c>
       <c r="D56" t="n">
-        <v>0.751173198223114</v>
+        <v>0.8020238280296326</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9618009328842163</v>
+        <v>0.9761235117912292</v>
       </c>
       <c r="F56" t="n">
-        <v>0.8373141288757324</v>
+        <v>0.8221809864044189</v>
       </c>
       <c r="G56" t="n">
-        <v>0.8124809861183167</v>
+        <v>0.7982232570648193</v>
       </c>
       <c r="H56" t="n">
-        <v>0.1903051882982254</v>
+        <v>0.3639513850212097</v>
       </c>
       <c r="I56" t="n">
-        <v>0.7869171500205994</v>
+        <v>0.8247165679931641</v>
       </c>
       <c r="J56" t="n">
-        <v>0.7874232530593872</v>
+        <v>0.7843570709228516</v>
       </c>
       <c r="K56" t="n">
-        <v>0.7798407077789307</v>
+        <v>0.8613427877426147</v>
       </c>
       <c r="L56" t="n">
-        <v>0.9560518264770508</v>
+        <v>0.9755255579948425</v>
       </c>
       <c r="M56" t="n">
-        <v>0.7836058735847473</v>
+        <v>0.8210492134094238</v>
       </c>
       <c r="N56" t="n">
-        <v>0.7519068121910095</v>
+        <v>0.7981725335121155</v>
       </c>
       <c r="O56" t="n">
         <v>55</v>
@@ -3097,46 +3097,46 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.1179600283503532</v>
+        <v>0.3641285300254822</v>
       </c>
       <c r="B57" t="n">
-        <v>0.816483736038208</v>
+        <v>0.7935127019882202</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9012194275856018</v>
+        <v>0.8494408130645752</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7547485828399658</v>
+        <v>0.802997350692749</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9621426463127136</v>
+        <v>0.9774702191352844</v>
       </c>
       <c r="F57" t="n">
-        <v>0.8380439281463623</v>
+        <v>0.8206217885017395</v>
       </c>
       <c r="G57" t="n">
-        <v>0.813444197177887</v>
+        <v>0.7967425584793091</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1869816035032272</v>
+        <v>0.367321103811264</v>
       </c>
       <c r="I57" t="n">
-        <v>0.787681519985199</v>
+        <v>0.8244881629943848</v>
       </c>
       <c r="J57" t="n">
-        <v>0.7637424468994141</v>
+        <v>0.7853127121925354</v>
       </c>
       <c r="K57" t="n">
-        <v>0.8103318214416504</v>
+        <v>0.8595038652420044</v>
       </c>
       <c r="L57" t="n">
-        <v>0.9572395086288452</v>
+        <v>0.9766618013381958</v>
       </c>
       <c r="M57" t="n">
-        <v>0.7863564491271973</v>
+        <v>0.8207350373268127</v>
       </c>
       <c r="N57" t="n">
-        <v>0.7530015707015991</v>
+        <v>0.7977716326713562</v>
       </c>
       <c r="O57" t="n">
         <v>56</v>
@@ -3144,46 +3144,46 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.1193552687764168</v>
+        <v>0.3685729205608368</v>
       </c>
       <c r="B58" t="n">
-        <v>0.816067636013031</v>
+        <v>0.7857986092567444</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8971938490867615</v>
+        <v>0.8595765829086304</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7606815695762634</v>
+        <v>0.7839428782463074</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9635875225067139</v>
+        <v>0.9753643870353699</v>
       </c>
       <c r="F58" t="n">
-        <v>0.8370636701583862</v>
+        <v>0.8169401288032532</v>
       </c>
       <c r="G58" t="n">
-        <v>0.8128328323364258</v>
+        <v>0.793013334274292</v>
       </c>
       <c r="H58" t="n">
-        <v>0.2001464366912842</v>
+        <v>0.3668825626373291</v>
       </c>
       <c r="I58" t="n">
-        <v>0.7766606211662292</v>
+        <v>0.827122688293457</v>
       </c>
       <c r="J58" t="n">
-        <v>0.7768709659576416</v>
+        <v>0.7975637316703796</v>
       </c>
       <c r="K58" t="n">
-        <v>0.7589420676231384</v>
+        <v>0.8534324765205383</v>
       </c>
       <c r="L58" t="n">
-        <v>0.9515659213066101</v>
+        <v>0.9763745665550232</v>
       </c>
       <c r="M58" t="n">
-        <v>0.7677891254425049</v>
+        <v>0.8245528340339661</v>
       </c>
       <c r="N58" t="n">
-        <v>0.7346485257148743</v>
+        <v>0.80098956823349</v>
       </c>
       <c r="O58" t="n">
         <v>57</v>
@@ -3191,46 +3191,46 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.1151702180504799</v>
+        <v>0.3620730936527252</v>
       </c>
       <c r="B59" t="n">
-        <v>0.8148407936096191</v>
+        <v>0.7988309264183044</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9034467935562134</v>
+        <v>0.8453318476676941</v>
       </c>
       <c r="D59" t="n">
-        <v>0.749167799949646</v>
+        <v>0.7969598770141602</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9594712853431702</v>
+        <v>0.9762961864471436</v>
       </c>
       <c r="F59" t="n">
-        <v>0.8366125226020813</v>
+        <v>0.8204572200775146</v>
       </c>
       <c r="G59" t="n">
-        <v>0.8114318251609802</v>
+        <v>0.7968950271606445</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1869908422231674</v>
+        <v>0.3572410643100739</v>
       </c>
       <c r="I59" t="n">
-        <v>0.7907038927078247</v>
+        <v>0.8275473117828369</v>
       </c>
       <c r="J59" t="n">
-        <v>0.7810999751091003</v>
+        <v>0.786940336227417</v>
       </c>
       <c r="K59" t="n">
-        <v>0.7961040139198303</v>
+        <v>0.8652427792549133</v>
       </c>
       <c r="L59" t="n">
-        <v>0.9580599069595337</v>
+        <v>0.9777670502662659</v>
       </c>
       <c r="M59" t="n">
-        <v>0.7885358333587646</v>
+        <v>0.8242360949516296</v>
       </c>
       <c r="N59" t="n">
-        <v>0.7562800049781799</v>
+        <v>0.8019503951072693</v>
       </c>
       <c r="O59" t="n">
         <v>58</v>
@@ -3238,46 +3238,46 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.1157245934009552</v>
+        <v>0.3662165403366089</v>
       </c>
       <c r="B60" t="n">
-        <v>0.8180230855941772</v>
+        <v>0.7937180399894714</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9015628695487976</v>
+        <v>0.8484716415405273</v>
       </c>
       <c r="D60" t="n">
-        <v>0.7610849738121033</v>
+        <v>0.7903040647506714</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9636920690536499</v>
+        <v>0.9754552841186523</v>
       </c>
       <c r="F60" t="n">
-        <v>0.8386406898498535</v>
+        <v>0.817247748374939</v>
       </c>
       <c r="G60" t="n">
-        <v>0.8135887980461121</v>
+        <v>0.7936311364173889</v>
       </c>
       <c r="H60" t="n">
-        <v>0.1885678172111511</v>
+        <v>0.3732581436634064</v>
       </c>
       <c r="I60" t="n">
-        <v>0.7883673310279846</v>
+        <v>0.819608747959137</v>
       </c>
       <c r="J60" t="n">
-        <v>0.7912258505821228</v>
+        <v>0.7698929309844971</v>
       </c>
       <c r="K60" t="n">
-        <v>0.7816369533538818</v>
+        <v>0.8669437170028687</v>
       </c>
       <c r="L60" t="n">
-        <v>0.9570249319076538</v>
+        <v>0.9761394262313843</v>
       </c>
       <c r="M60" t="n">
-        <v>0.7864140272140503</v>
+        <v>0.81554114818573</v>
       </c>
       <c r="N60" t="n">
-        <v>0.7547838687896729</v>
+        <v>0.7921607494354248</v>
       </c>
       <c r="O60" t="n">
         <v>59</v>
@@ -3285,46 +3285,46 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.1103022322058678</v>
+        <v>0.3593526184558868</v>
       </c>
       <c r="B61" t="n">
-        <v>0.822296142578125</v>
+        <v>0.7957887649536133</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9074759483337402</v>
+        <v>0.849947988986969</v>
       </c>
       <c r="D61" t="n">
-        <v>0.7605408430099487</v>
+        <v>0.8021501898765564</v>
       </c>
       <c r="E61" t="n">
-        <v>0.963029146194458</v>
+        <v>0.976976215839386</v>
       </c>
       <c r="F61" t="n">
-        <v>0.8438397645950317</v>
+        <v>0.822293758392334</v>
       </c>
       <c r="G61" t="n">
-        <v>0.8202561140060425</v>
+        <v>0.798900842666626</v>
       </c>
       <c r="H61" t="n">
-        <v>0.189994141459465</v>
+        <v>0.3670864999294281</v>
       </c>
       <c r="I61" t="n">
-        <v>0.7873134613037109</v>
+        <v>0.8251062035560608</v>
       </c>
       <c r="J61" t="n">
-        <v>0.7765706181526184</v>
+        <v>0.7935978770256042</v>
       </c>
       <c r="K61" t="n">
-        <v>0.7887519001960754</v>
+        <v>0.8493861556053162</v>
       </c>
       <c r="L61" t="n">
-        <v>0.9564396739006042</v>
+        <v>0.9762458801269531</v>
       </c>
       <c r="M61" t="n">
-        <v>0.7826352715492249</v>
+        <v>0.8205448389053345</v>
       </c>
       <c r="N61" t="n">
-        <v>0.7506848573684692</v>
+        <v>0.7978900671005249</v>
       </c>
       <c r="O61" t="n">
         <v>60</v>
@@ -3332,46 +3332,46 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.1164925694465637</v>
+        <v>0.3526176810264587</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8225760459899902</v>
+        <v>0.7993754148483276</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8979936838150024</v>
+        <v>0.8541848063468933</v>
       </c>
       <c r="D62" t="n">
-        <v>0.7734124660491943</v>
+        <v>0.795566737651825</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9641467332839966</v>
+        <v>0.9768404960632324</v>
       </c>
       <c r="F62" t="n">
-        <v>0.842764139175415</v>
+        <v>0.8240731358528137</v>
       </c>
       <c r="G62" t="n">
-        <v>0.8190074563026428</v>
+        <v>0.8009551167488098</v>
       </c>
       <c r="H62" t="n">
-        <v>0.189912810921669</v>
+        <v>0.358849972486496</v>
       </c>
       <c r="I62" t="n">
-        <v>0.7874127626419067</v>
+        <v>0.8289251327514648</v>
       </c>
       <c r="J62" t="n">
-        <v>0.7977337241172791</v>
+        <v>0.7982129454612732</v>
       </c>
       <c r="K62" t="n">
-        <v>0.7642497420310974</v>
+        <v>0.8560237884521484</v>
       </c>
       <c r="L62" t="n">
-        <v>0.9553226828575134</v>
+        <v>0.9767459630966187</v>
       </c>
       <c r="M62" t="n">
-        <v>0.7806321382522583</v>
+        <v>0.8261082172393799</v>
       </c>
       <c r="N62" t="n">
-        <v>0.7505258321762085</v>
+        <v>0.8032919764518738</v>
       </c>
       <c r="O62" t="n">
         <v>61</v>
@@ -3379,46 +3379,46 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.1118439063429832</v>
+        <v>0.3634105026721954</v>
       </c>
       <c r="B63" t="n">
-        <v>0.8230050206184387</v>
+        <v>0.7887240648269653</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9071030020713806</v>
+        <v>0.8537773489952087</v>
       </c>
       <c r="D63" t="n">
-        <v>0.7623012661933899</v>
+        <v>0.7871055603027344</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9634591937065125</v>
+        <v>0.9766071438789368</v>
       </c>
       <c r="F63" t="n">
-        <v>0.844811737537384</v>
+        <v>0.8170457482337952</v>
       </c>
       <c r="G63" t="n">
-        <v>0.8208110332489014</v>
+        <v>0.793668806552887</v>
       </c>
       <c r="H63" t="n">
-        <v>0.1860455274581909</v>
+        <v>0.3697409331798553</v>
       </c>
       <c r="I63" t="n">
-        <v>0.7905763387680054</v>
+        <v>0.8202488422393799</v>
       </c>
       <c r="J63" t="n">
-        <v>0.7840708494186401</v>
+        <v>0.7725489735603333</v>
       </c>
       <c r="K63" t="n">
-        <v>0.7883848547935486</v>
+        <v>0.8633342981338501</v>
       </c>
       <c r="L63" t="n">
-        <v>0.9588621854782104</v>
+        <v>0.9765570163726807</v>
       </c>
       <c r="M63" t="n">
-        <v>0.786243736743927</v>
+        <v>0.815422534942627</v>
       </c>
       <c r="N63" t="n">
-        <v>0.7544984221458435</v>
+        <v>0.7925536632537842</v>
       </c>
       <c r="O63" t="n">
         <v>62</v>
@@ -3426,46 +3426,46 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.1140664666891098</v>
+        <v>0.359269917011261</v>
       </c>
       <c r="B64" t="n">
-        <v>0.8178911209106445</v>
+        <v>0.7920253276824951</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9055020809173584</v>
+        <v>0.8551361560821533</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7541794776916504</v>
+        <v>0.7917895317077637</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9624186158180237</v>
+        <v>0.9765644669532776</v>
       </c>
       <c r="F64" t="n">
-        <v>0.8390405178070068</v>
+        <v>0.8206261992454529</v>
       </c>
       <c r="G64" t="n">
-        <v>0.815291166305542</v>
+        <v>0.7972957491874695</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1983786672353745</v>
+        <v>0.3561840057373047</v>
       </c>
       <c r="I64" t="n">
-        <v>0.7806618213653564</v>
+        <v>0.8291242122650146</v>
       </c>
       <c r="J64" t="n">
-        <v>0.7389262914657593</v>
+        <v>0.7881795167922974</v>
       </c>
       <c r="K64" t="n">
-        <v>0.8150141835212708</v>
+        <v>0.8721867203712463</v>
       </c>
       <c r="L64" t="n">
-        <v>0.9574999213218689</v>
+        <v>0.9773754477500916</v>
       </c>
       <c r="M64" t="n">
-        <v>0.7751263976097107</v>
+        <v>0.8280578851699829</v>
       </c>
       <c r="N64" t="n">
-        <v>0.7418810725212097</v>
+        <v>0.8047200441360474</v>
       </c>
       <c r="O64" t="n">
         <v>63</v>
@@ -3473,46 +3473,46 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.1106244325637817</v>
+        <v>0.3589548170566559</v>
       </c>
       <c r="B65" t="n">
-        <v>0.8144668340682983</v>
+        <v>0.792818546295166</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9135128259658813</v>
+        <v>0.8559398055076599</v>
       </c>
       <c r="D65" t="n">
-        <v>0.7444823980331421</v>
+        <v>0.7897252440452576</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9626620411872864</v>
+        <v>0.9765349626541138</v>
       </c>
       <c r="F65" t="n">
-        <v>0.8400400876998901</v>
+        <v>0.8210272192955017</v>
       </c>
       <c r="G65" t="n">
-        <v>0.8159690499305725</v>
+        <v>0.79781574010849</v>
       </c>
       <c r="H65" t="n">
-        <v>0.1899051666259766</v>
+        <v>0.3793518543243408</v>
       </c>
       <c r="I65" t="n">
-        <v>0.7856810092926025</v>
+        <v>0.8175117969512939</v>
       </c>
       <c r="J65" t="n">
-        <v>0.7876972556114197</v>
+        <v>0.7704057693481445</v>
       </c>
       <c r="K65" t="n">
-        <v>0.7798476219177246</v>
+        <v>0.8604971766471863</v>
       </c>
       <c r="L65" t="n">
-        <v>0.9560537338256836</v>
+        <v>0.9752161502838135</v>
       </c>
       <c r="M65" t="n">
-        <v>0.783766508102417</v>
+        <v>0.8129631280899048</v>
       </c>
       <c r="N65" t="n">
-        <v>0.7508903741836548</v>
+        <v>0.789048433303833</v>
       </c>
       <c r="O65" t="n">
         <v>64</v>
@@ -3520,46 +3520,46 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.1146983355283737</v>
+        <v>0.3483965694904327</v>
       </c>
       <c r="B66" t="n">
-        <v>0.8233163356781006</v>
+        <v>0.7985966205596924</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9060989022254944</v>
+        <v>0.8543118238449097</v>
       </c>
       <c r="D66" t="n">
-        <v>0.7661964893341064</v>
+        <v>0.8036714196205139</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9657219052314758</v>
+        <v>0.9785526394844055</v>
       </c>
       <c r="F66" t="n">
-        <v>0.8454993367195129</v>
+        <v>0.826120913028717</v>
       </c>
       <c r="G66" t="n">
-        <v>0.8224245309829712</v>
+        <v>0.8033030033111572</v>
       </c>
       <c r="H66" t="n">
-        <v>0.1804772466421127</v>
+        <v>0.3644276857376099</v>
       </c>
       <c r="I66" t="n">
-        <v>0.7932872772216797</v>
+        <v>0.8245254755020142</v>
       </c>
       <c r="J66" t="n">
-        <v>0.808964729309082</v>
+        <v>0.7919142842292786</v>
       </c>
       <c r="K66" t="n">
-        <v>0.7808116674423218</v>
+        <v>0.8490464091300964</v>
       </c>
       <c r="L66" t="n">
-        <v>0.9591079950332642</v>
+        <v>0.9766093492507935</v>
       </c>
       <c r="M66" t="n">
-        <v>0.7946236729621887</v>
+        <v>0.8194857835769653</v>
       </c>
       <c r="N66" t="n">
-        <v>0.7631441950798035</v>
+        <v>0.797048032283783</v>
       </c>
       <c r="O66" t="n">
         <v>65</v>
@@ -3567,46 +3567,46 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.1083614230155945</v>
+        <v>0.3537604808807373</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8192033767700195</v>
+        <v>0.7920927405357361</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9089440107345581</v>
+        <v>0.8596389293670654</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7574864029884338</v>
+        <v>0.7923895716667175</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9653242826461792</v>
+        <v>0.977089524269104</v>
       </c>
       <c r="F67" t="n">
-        <v>0.8431190252304077</v>
+        <v>0.8230034112930298</v>
       </c>
       <c r="G67" t="n">
-        <v>0.8193774819374084</v>
+        <v>0.7999428510665894</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1864376813173294</v>
+        <v>0.3645927309989929</v>
       </c>
       <c r="I67" t="n">
-        <v>0.7881786227226257</v>
+        <v>0.8265272378921509</v>
       </c>
       <c r="J67" t="n">
-        <v>0.7778929471969604</v>
+        <v>0.7962231636047363</v>
       </c>
       <c r="K67" t="n">
-        <v>0.7933056354522705</v>
+        <v>0.8517682552337646</v>
       </c>
       <c r="L67" t="n">
-        <v>0.9573400616645813</v>
+        <v>0.9749093651771545</v>
       </c>
       <c r="M67" t="n">
-        <v>0.785538911819458</v>
+        <v>0.823059618473053</v>
       </c>
       <c r="N67" t="n">
-        <v>0.7527866363525391</v>
+        <v>0.7999930381774902</v>
       </c>
       <c r="O67" t="n">
         <v>66</v>
@@ -3614,46 +3614,46 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.1142832636833191</v>
+        <v>0.3488604724407196</v>
       </c>
       <c r="B68" t="n">
-        <v>0.8149336576461792</v>
+        <v>0.7956876754760742</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9085264801979065</v>
+        <v>0.8617362976074219</v>
       </c>
       <c r="D68" t="n">
-        <v>0.7501581907272339</v>
+        <v>0.7973030805587769</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9614599943161011</v>
+        <v>0.9775171875953674</v>
       </c>
       <c r="F68" t="n">
-        <v>0.8392501473426819</v>
+        <v>0.8266178369522095</v>
       </c>
       <c r="G68" t="n">
-        <v>0.8148943781852722</v>
+        <v>0.8034499883651733</v>
       </c>
       <c r="H68" t="n">
-        <v>0.189062237739563</v>
+        <v>0.3690102100372314</v>
       </c>
       <c r="I68" t="n">
-        <v>0.7891606092453003</v>
+        <v>0.8250484466552734</v>
       </c>
       <c r="J68" t="n">
-        <v>0.7961835265159607</v>
+        <v>0.7924471497535706</v>
       </c>
       <c r="K68" t="n">
-        <v>0.7729706764221191</v>
+        <v>0.8534022569656372</v>
       </c>
       <c r="L68" t="n">
-        <v>0.9573978781700134</v>
+        <v>0.9736871123313904</v>
       </c>
       <c r="M68" t="n">
-        <v>0.7843952775001526</v>
+        <v>0.8217959403991699</v>
       </c>
       <c r="N68" t="n">
-        <v>0.7539144158363342</v>
+        <v>0.79826420545578</v>
       </c>
       <c r="O68" t="n">
         <v>67</v>
@@ -3661,46 +3661,46 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.1033384054899216</v>
+        <v>0.3552853763103485</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8202470541000366</v>
+        <v>0.7873709201812744</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9130236506462097</v>
+        <v>0.8656947612762451</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7584468126296997</v>
+        <v>0.7937989234924316</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9651029109954834</v>
+        <v>0.9780898094177246</v>
       </c>
       <c r="F69" t="n">
-        <v>0.846403956413269</v>
+        <v>0.8232666850090027</v>
       </c>
       <c r="G69" t="n">
-        <v>0.8228604793548584</v>
+        <v>0.8000520467758179</v>
       </c>
       <c r="H69" t="n">
-        <v>0.1919583827257156</v>
+        <v>0.367076963186264</v>
       </c>
       <c r="I69" t="n">
-        <v>0.7854154109954834</v>
+        <v>0.8288689255714417</v>
       </c>
       <c r="J69" t="n">
-        <v>0.7758433222770691</v>
+        <v>0.8085706233978271</v>
       </c>
       <c r="K69" t="n">
-        <v>0.7861106991767883</v>
+        <v>0.8449141383171082</v>
       </c>
       <c r="L69" t="n">
-        <v>0.9557281732559204</v>
+        <v>0.9742334485054016</v>
       </c>
       <c r="M69" t="n">
-        <v>0.7809239625930786</v>
+        <v>0.8263429403305054</v>
       </c>
       <c r="N69" t="n">
-        <v>0.7482411861419678</v>
+        <v>0.8028883934020996</v>
       </c>
       <c r="O69" t="n">
         <v>68</v>
@@ -3708,46 +3708,46 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.1064735725522041</v>
+        <v>0.3453966379165649</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8212655782699585</v>
+        <v>0.8017970323562622</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9123254418373108</v>
+        <v>0.8500227332115173</v>
       </c>
       <c r="D70" t="n">
-        <v>0.7628775238990784</v>
+        <v>0.801548957824707</v>
       </c>
       <c r="E70" t="n">
-        <v>0.968086302280426</v>
+        <v>0.9781897068023682</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8461778163909912</v>
+        <v>0.8249526619911194</v>
       </c>
       <c r="G70" t="n">
-        <v>0.822357177734375</v>
+        <v>0.8029011487960815</v>
       </c>
       <c r="H70" t="n">
-        <v>0.1935172826051712</v>
+        <v>0.3630235195159912</v>
       </c>
       <c r="I70" t="n">
-        <v>0.7820444107055664</v>
+        <v>0.8240431547164917</v>
       </c>
       <c r="J70" t="n">
-        <v>0.773238480091095</v>
+        <v>0.7775192260742188</v>
       </c>
       <c r="K70" t="n">
-        <v>0.7880779504776001</v>
+        <v>0.8703682422637939</v>
       </c>
       <c r="L70" t="n">
-        <v>0.9555299282073975</v>
+        <v>0.9762744307518005</v>
       </c>
       <c r="M70" t="n">
-        <v>0.7805634140968323</v>
+        <v>0.8213279843330383</v>
       </c>
       <c r="N70" t="n">
-        <v>0.7464650869369507</v>
+        <v>0.798086404800415</v>
       </c>
       <c r="O70" t="n">
         <v>69</v>
@@ -3755,46 +3755,46 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.1076916083693504</v>
+        <v>0.3479972779750824</v>
       </c>
       <c r="B71" t="n">
-        <v>0.8226253986358643</v>
+        <v>0.7930063009262085</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9097883105278015</v>
+        <v>0.8613213300704956</v>
       </c>
       <c r="D71" t="n">
-        <v>0.7593575119972229</v>
+        <v>0.792428195476532</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9646955132484436</v>
+        <v>0.977739155292511</v>
       </c>
       <c r="F71" t="n">
-        <v>0.8459106683731079</v>
+        <v>0.8238514065742493</v>
       </c>
       <c r="G71" t="n">
-        <v>0.8223480582237244</v>
+        <v>0.8014271855354309</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1851501017808914</v>
+        <v>0.364930659532547</v>
       </c>
       <c r="I71" t="n">
-        <v>0.7875968217849731</v>
+        <v>0.8252633810043335</v>
       </c>
       <c r="J71" t="n">
-        <v>0.7783724665641785</v>
+        <v>0.7887337207794189</v>
       </c>
       <c r="K71" t="n">
-        <v>0.7985807061195374</v>
+        <v>0.8587877154350281</v>
       </c>
       <c r="L71" t="n">
-        <v>0.9579663872718811</v>
+        <v>0.975715696811676</v>
       </c>
       <c r="M71" t="n">
-        <v>0.7883123755455017</v>
+        <v>0.8222713470458984</v>
       </c>
       <c r="N71" t="n">
-        <v>0.7556559443473816</v>
+        <v>0.7988455295562744</v>
       </c>
       <c r="O71" t="n">
         <v>70</v>
@@ -3802,46 +3802,46 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.1106090247631073</v>
+        <v>0.3526512086391449</v>
       </c>
       <c r="B72" t="n">
-        <v>0.818711519241333</v>
+        <v>0.7890148162841797</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9090619087219238</v>
+        <v>0.86674964427948</v>
       </c>
       <c r="D72" t="n">
-        <v>0.7563951015472412</v>
+        <v>0.7906536459922791</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9639215469360352</v>
+        <v>0.9768090844154358</v>
       </c>
       <c r="F72" t="n">
-        <v>0.8427121043205261</v>
+        <v>0.8240323662757874</v>
       </c>
       <c r="G72" t="n">
-        <v>0.8188614249229431</v>
+        <v>0.800914466381073</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1932922005653381</v>
+        <v>0.3733064532279968</v>
       </c>
       <c r="I72" t="n">
-        <v>0.7863420248031616</v>
+        <v>0.8197333812713623</v>
       </c>
       <c r="J72" t="n">
-        <v>0.7671631574630737</v>
+        <v>0.7738440036773682</v>
       </c>
       <c r="K72" t="n">
-        <v>0.8014241456985474</v>
+        <v>0.862308144569397</v>
       </c>
       <c r="L72" t="n">
-        <v>0.9572888612747192</v>
+        <v>0.9754637479782104</v>
       </c>
       <c r="M72" t="n">
-        <v>0.7839104533195496</v>
+        <v>0.8156845569610596</v>
       </c>
       <c r="N72" t="n">
-        <v>0.7509058117866516</v>
+        <v>0.7920068502426147</v>
       </c>
       <c r="O72" t="n">
         <v>71</v>
@@ -3849,46 +3849,46 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.1051850542426109</v>
+        <v>0.3425135016441345</v>
       </c>
       <c r="B73" t="n">
-        <v>0.8262142539024353</v>
+        <v>0.7980500459671021</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9091863036155701</v>
+        <v>0.8581908345222473</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7727586627006531</v>
+        <v>0.7999834418296814</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9681360125541687</v>
+        <v>0.9787412285804749</v>
       </c>
       <c r="F73" t="n">
-        <v>0.8505131006240845</v>
+        <v>0.8268057703971863</v>
       </c>
       <c r="G73" t="n">
-        <v>0.8277335166931152</v>
+        <v>0.8046243190765381</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1943179816007614</v>
+        <v>0.3729829490184784</v>
       </c>
       <c r="I73" t="n">
-        <v>0.7835037708282471</v>
+        <v>0.8203961849212646</v>
       </c>
       <c r="J73" t="n">
-        <v>0.7646933794021606</v>
+        <v>0.7833225131034851</v>
       </c>
       <c r="K73" t="n">
-        <v>0.7955985069274902</v>
+        <v>0.8481950759887695</v>
       </c>
       <c r="L73" t="n">
-        <v>0.9566130042076111</v>
+        <v>0.9738414287567139</v>
       </c>
       <c r="M73" t="n">
-        <v>0.7798218727111816</v>
+        <v>0.814469039440155</v>
       </c>
       <c r="N73" t="n">
-        <v>0.746916651725769</v>
+        <v>0.791652500629425</v>
       </c>
       <c r="O73" t="n">
         <v>72</v>
@@ -3896,46 +3896,46 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.1066881492733955</v>
+        <v>0.3442533016204834</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8255518674850464</v>
+        <v>0.7980576753616333</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9053906798362732</v>
+        <v>0.8617671132087708</v>
       </c>
       <c r="D74" t="n">
-        <v>0.7739447951316833</v>
+        <v>0.8004764914512634</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9679491519927979</v>
+        <v>0.9785798788070679</v>
       </c>
       <c r="F74" t="n">
-        <v>0.8488768935203552</v>
+        <v>0.8284603953361511</v>
       </c>
       <c r="G74" t="n">
-        <v>0.8255743384361267</v>
+        <v>0.8060943484306335</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1820261031389236</v>
+        <v>0.3627273440361023</v>
       </c>
       <c r="I74" t="n">
-        <v>0.7908449172973633</v>
+        <v>0.8295264840126038</v>
       </c>
       <c r="J74" t="n">
-        <v>0.8050564527511597</v>
+        <v>0.8055257201194763</v>
       </c>
       <c r="K74" t="n">
-        <v>0.7773458361625671</v>
+        <v>0.8498848676681519</v>
       </c>
       <c r="L74" t="n">
-        <v>0.9590545296669006</v>
+        <v>0.9746676087379456</v>
       </c>
       <c r="M74" t="n">
-        <v>0.7909786701202393</v>
+        <v>0.8271109461784363</v>
       </c>
       <c r="N74" t="n">
-        <v>0.7593954801559448</v>
+        <v>0.803889274597168</v>
       </c>
       <c r="O74" t="n">
         <v>73</v>
@@ -3943,46 +3943,46 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.1071716994047165</v>
+        <v>0.3364118337631226</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8150103688240051</v>
+        <v>0.8034470081329346</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9170210361480713</v>
+        <v>0.8612866997718811</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7526434063911438</v>
+        <v>0.8064426779747009</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9647465944290161</v>
+        <v>0.9788910746574402</v>
       </c>
       <c r="F75" t="n">
-        <v>0.8445942997932434</v>
+        <v>0.8321552276611328</v>
       </c>
       <c r="G75" t="n">
-        <v>0.8213207721710205</v>
+        <v>0.8100103139877319</v>
       </c>
       <c r="H75" t="n">
-        <v>0.1927644163370132</v>
+        <v>0.37535560131073</v>
       </c>
       <c r="I75" t="n">
-        <v>0.7845141887664795</v>
+        <v>0.8256043195724487</v>
       </c>
       <c r="J75" t="n">
-        <v>0.7846486568450928</v>
+        <v>0.8069943189620972</v>
       </c>
       <c r="K75" t="n">
-        <v>0.775576651096344</v>
+        <v>0.8381426334381104</v>
       </c>
       <c r="L75" t="n">
-        <v>0.955365777015686</v>
+        <v>0.9730980396270752</v>
       </c>
       <c r="M75" t="n">
-        <v>0.7801162004470825</v>
+        <v>0.8222736120223999</v>
       </c>
       <c r="N75" t="n">
-        <v>0.7475990653038025</v>
+        <v>0.7984135746955872</v>
       </c>
       <c r="O75" t="n">
         <v>74</v>
@@ -3990,46 +3990,46 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.1034982651472092</v>
+        <v>0.3323335945606232</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8236591815948486</v>
+        <v>0.8034293651580811</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9139722585678101</v>
+        <v>0.8628413677215576</v>
       </c>
       <c r="D76" t="n">
-        <v>0.7686260938644409</v>
+        <v>0.8106086254119873</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9678226113319397</v>
+        <v>0.979931116104126</v>
       </c>
       <c r="F76" t="n">
-        <v>0.850635290145874</v>
+        <v>0.8340842127799988</v>
       </c>
       <c r="G76" t="n">
-        <v>0.8272964954376221</v>
+        <v>0.8117396235466003</v>
       </c>
       <c r="H76" t="n">
-        <v>0.1823306083679199</v>
+        <v>0.3619144558906555</v>
       </c>
       <c r="I76" t="n">
-        <v>0.7930290699005127</v>
+        <v>0.8275496363639832</v>
       </c>
       <c r="J76" t="n">
-        <v>0.7960940599441528</v>
+        <v>0.7964872121810913</v>
       </c>
       <c r="K76" t="n">
-        <v>0.7873852849006653</v>
+        <v>0.8540659546852112</v>
       </c>
       <c r="L76" t="n">
-        <v>0.9578245878219604</v>
+        <v>0.9754446148872375</v>
       </c>
       <c r="M76" t="n">
-        <v>0.7917110919952393</v>
+        <v>0.8242722749710083</v>
       </c>
       <c r="N76" t="n">
-        <v>0.7596631646156311</v>
+        <v>0.8014034628868103</v>
       </c>
       <c r="O76" t="n">
         <v>75</v>
@@ -4037,46 +4037,46 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.1056050211191177</v>
+        <v>0.3404385447502136</v>
       </c>
       <c r="B77" t="n">
-        <v>0.8245452642440796</v>
+        <v>0.8009028434753418</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9136615395545959</v>
+        <v>0.8599276542663574</v>
       </c>
       <c r="D77" t="n">
-        <v>0.7640449404716492</v>
+        <v>0.802839994430542</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9669997692108154</v>
+        <v>0.9781261682510376</v>
       </c>
       <c r="F77" t="n">
-        <v>0.8489164710044861</v>
+        <v>0.8302493095397949</v>
       </c>
       <c r="G77" t="n">
-        <v>0.8261246681213379</v>
+        <v>0.8077208995819092</v>
       </c>
       <c r="H77" t="n">
-        <v>0.183123454451561</v>
+        <v>0.3766252994537354</v>
       </c>
       <c r="I77" t="n">
-        <v>0.7886857986450195</v>
+        <v>0.8175331950187683</v>
       </c>
       <c r="J77" t="n">
-        <v>0.7820376753807068</v>
+        <v>0.7763022184371948</v>
       </c>
       <c r="K77" t="n">
-        <v>0.7917414903640747</v>
+        <v>0.8494104743003845</v>
       </c>
       <c r="L77" t="n">
-        <v>0.9578962326049805</v>
+        <v>0.9745165109634399</v>
       </c>
       <c r="M77" t="n">
-        <v>0.7868369221687317</v>
+        <v>0.8112125396728516</v>
       </c>
       <c r="N77" t="n">
-        <v>0.7540797591209412</v>
+        <v>0.7880491018295288</v>
       </c>
       <c r="O77" t="n">
         <v>76</v>
@@ -4084,46 +4084,46 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.1073316186666489</v>
+        <v>0.3417787253856659</v>
       </c>
       <c r="B78" t="n">
-        <v>0.8261023163795471</v>
+        <v>0.7973806858062744</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9100029468536377</v>
+        <v>0.8613042235374451</v>
       </c>
       <c r="D78" t="n">
-        <v>0.7714093327522278</v>
+        <v>0.8018864393234253</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9677450656890869</v>
+        <v>0.9784626364707947</v>
       </c>
       <c r="F78" t="n">
-        <v>0.8496891260147095</v>
+        <v>0.8283039927482605</v>
       </c>
       <c r="G78" t="n">
-        <v>0.8265847563743591</v>
+        <v>0.8059601187705994</v>
       </c>
       <c r="H78" t="n">
-        <v>0.191994309425354</v>
+        <v>0.3757723867893219</v>
       </c>
       <c r="I78" t="n">
-        <v>0.7844048738479614</v>
+        <v>0.8240630626678467</v>
       </c>
       <c r="J78" t="n">
-        <v>0.7976577877998352</v>
+        <v>0.8021597266197205</v>
       </c>
       <c r="K78" t="n">
-        <v>0.7620397210121155</v>
+        <v>0.8382963538169861</v>
       </c>
       <c r="L78" t="n">
-        <v>0.9559095501899719</v>
+        <v>0.9724504351615906</v>
       </c>
       <c r="M78" t="n">
-        <v>0.7794526815414429</v>
+        <v>0.8198300004005432</v>
       </c>
       <c r="N78" t="n">
-        <v>0.7480281591415405</v>
+        <v>0.7962637543678284</v>
       </c>
       <c r="O78" t="n">
         <v>77</v>
@@ -4131,46 +4131,46 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.1009601801633835</v>
+        <v>0.3296338319778442</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8299652338027954</v>
+        <v>0.8042622804641724</v>
       </c>
       <c r="C79" t="n">
-        <v>0.9120753407478333</v>
+        <v>0.8638532757759094</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7761567831039429</v>
+        <v>0.8081642985343933</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9698855876922607</v>
+        <v>0.9801904559135437</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8546777963638306</v>
+        <v>0.8344879150390625</v>
       </c>
       <c r="G79" t="n">
-        <v>0.8321599960327148</v>
+        <v>0.812603771686554</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1859630346298218</v>
+        <v>0.3729463517665863</v>
       </c>
       <c r="I79" t="n">
-        <v>0.7910801768302917</v>
+        <v>0.8227250576019287</v>
       </c>
       <c r="J79" t="n">
-        <v>0.788410484790802</v>
+        <v>0.7876677513122559</v>
       </c>
       <c r="K79" t="n">
-        <v>0.789078950881958</v>
+        <v>0.8521203398704529</v>
       </c>
       <c r="L79" t="n">
-        <v>0.9587965607643127</v>
+        <v>0.97372967004776</v>
       </c>
       <c r="M79" t="n">
-        <v>0.7887327075004578</v>
+        <v>0.8186273574829102</v>
       </c>
       <c r="N79" t="n">
-        <v>0.7571235299110413</v>
+        <v>0.7951345443725586</v>
       </c>
       <c r="O79" t="n">
         <v>78</v>
@@ -4178,46 +4178,46 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.1070571690797806</v>
+        <v>0.3336010277271271</v>
       </c>
       <c r="B80" t="n">
-        <v>0.823901891708374</v>
+        <v>0.7991538047790527</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9099798202514648</v>
+        <v>0.8667669892311096</v>
       </c>
       <c r="D80" t="n">
-        <v>0.7709905505180359</v>
+        <v>0.798089325428009</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9682806134223938</v>
+        <v>0.9786237478256226</v>
       </c>
       <c r="F80" t="n">
-        <v>0.8494629263877869</v>
+        <v>0.8313093185424805</v>
       </c>
       <c r="G80" t="n">
-        <v>0.8269807100296021</v>
+        <v>0.8095577955245972</v>
       </c>
       <c r="H80" t="n">
-        <v>0.1944758892059326</v>
+        <v>0.3710025548934937</v>
       </c>
       <c r="I80" t="n">
-        <v>0.784096360206604</v>
+        <v>0.8216241002082825</v>
       </c>
       <c r="J80" t="n">
-        <v>0.7850597500801086</v>
+        <v>0.7864246964454651</v>
       </c>
       <c r="K80" t="n">
-        <v>0.7703583240509033</v>
+        <v>0.8487395644187927</v>
       </c>
       <c r="L80" t="n">
-        <v>0.9553194642066956</v>
+        <v>0.9729366898536682</v>
       </c>
       <c r="M80" t="n">
-        <v>0.7776482105255127</v>
+        <v>0.8163947463035583</v>
       </c>
       <c r="N80" t="n">
-        <v>0.7462815642356873</v>
+        <v>0.7933633327484131</v>
       </c>
       <c r="O80" t="n">
         <v>79</v>
@@ -4225,46 +4225,46 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.1086815744638443</v>
+        <v>0.3336569666862488</v>
       </c>
       <c r="B81" t="n">
-        <v>0.8221433758735657</v>
+        <v>0.7972182035446167</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9069786667823792</v>
+        <v>0.8728725910186768</v>
       </c>
       <c r="D81" t="n">
-        <v>0.7670862674713135</v>
+        <v>0.7974845170974731</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9665042161941528</v>
+        <v>0.9794593453407288</v>
       </c>
       <c r="F81" t="n">
-        <v>0.8481956720352173</v>
+        <v>0.8327174782752991</v>
       </c>
       <c r="G81" t="n">
-        <v>0.8257517218589783</v>
+        <v>0.8106518983840942</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1779438406229019</v>
+        <v>0.3687767088413239</v>
       </c>
       <c r="I81" t="n">
-        <v>0.795986533164978</v>
+        <v>0.8242673873901367</v>
       </c>
       <c r="J81" t="n">
-        <v>0.8217551112174988</v>
+        <v>0.7831172943115234</v>
       </c>
       <c r="K81" t="n">
-        <v>0.7658907175064087</v>
+        <v>0.8635891675949097</v>
       </c>
       <c r="L81" t="n">
-        <v>0.9586293697357178</v>
+        <v>0.9740042686462402</v>
       </c>
       <c r="M81" t="n">
-        <v>0.792860746383667</v>
+        <v>0.8213869333267212</v>
       </c>
       <c r="N81" t="n">
-        <v>0.7635400891304016</v>
+        <v>0.7979028820991516</v>
       </c>
       <c r="O81" t="n">
         <v>80</v>
@@ -4272,46 +4272,46 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.1016303971409798</v>
+        <v>0.3293864727020264</v>
       </c>
       <c r="B82" t="n">
-        <v>0.8158023357391357</v>
+        <v>0.8014518022537231</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9226935505867004</v>
+        <v>0.8658315539360046</v>
       </c>
       <c r="D82" t="n">
-        <v>0.7512597441673279</v>
+        <v>0.8037596344947815</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9653292298316956</v>
+        <v>0.9794542789459229</v>
       </c>
       <c r="F82" t="n">
-        <v>0.8476980328559875</v>
+        <v>0.8333417177200317</v>
       </c>
       <c r="G82" t="n">
-        <v>0.8244398236274719</v>
+        <v>0.8117804527282715</v>
       </c>
       <c r="H82" t="n">
-        <v>0.1811196357011795</v>
+        <v>0.3711360991001129</v>
       </c>
       <c r="I82" t="n">
-        <v>0.7936611771583557</v>
+        <v>0.8218739032745361</v>
       </c>
       <c r="J82" t="n">
-        <v>0.7963289022445679</v>
+        <v>0.7825978398323059</v>
       </c>
       <c r="K82" t="n">
-        <v>0.7873675227165222</v>
+        <v>0.8544047474861145</v>
       </c>
       <c r="L82" t="n">
-        <v>0.9595505595207214</v>
+        <v>0.9733927845954895</v>
       </c>
       <c r="M82" t="n">
-        <v>0.7918730974197388</v>
+        <v>0.8169263601303101</v>
       </c>
       <c r="N82" t="n">
-        <v>0.7599403262138367</v>
+        <v>0.7940133810043335</v>
       </c>
       <c r="O82" t="n">
         <v>81</v>
@@ -4319,46 +4319,46 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.104928083717823</v>
+        <v>0.3219244778156281</v>
       </c>
       <c r="B83" t="n">
-        <v>0.8258710503578186</v>
+        <v>0.8096960783004761</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9090248942375183</v>
+        <v>0.8646367788314819</v>
       </c>
       <c r="D83" t="n">
-        <v>0.7679950594902039</v>
+        <v>0.8172817826271057</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9676676988601685</v>
+        <v>0.9808806777000427</v>
       </c>
       <c r="F83" t="n">
-        <v>0.8493550419807434</v>
+        <v>0.8393765687942505</v>
       </c>
       <c r="G83" t="n">
-        <v>0.826427698135376</v>
+        <v>0.8178346753120422</v>
       </c>
       <c r="H83" t="n">
-        <v>0.183828666806221</v>
+        <v>0.3660950362682343</v>
       </c>
       <c r="I83" t="n">
-        <v>0.7900496125221252</v>
+        <v>0.8286210298538208</v>
       </c>
       <c r="J83" t="n">
-        <v>0.8015542030334473</v>
+        <v>0.8069992065429688</v>
       </c>
       <c r="K83" t="n">
-        <v>0.7731432914733887</v>
+        <v>0.8456159830093384</v>
       </c>
       <c r="L83" t="n">
-        <v>0.9575126767158508</v>
+        <v>0.9734119176864624</v>
       </c>
       <c r="M83" t="n">
-        <v>0.7870732545852661</v>
+        <v>0.8258563876152039</v>
       </c>
       <c r="N83" t="n">
-        <v>0.7561808228492737</v>
+        <v>0.8025456070899963</v>
       </c>
       <c r="O83" t="n">
         <v>82</v>
@@ -4366,46 +4366,46 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.1052300482988358</v>
+        <v>0.3298810124397278</v>
       </c>
       <c r="B84" t="n">
-        <v>0.822626531124115</v>
+        <v>0.8003475666046143</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9147501587867737</v>
+        <v>0.8744446635246277</v>
       </c>
       <c r="D84" t="n">
-        <v>0.7656066417694092</v>
+        <v>0.8007171154022217</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9667345881462097</v>
+        <v>0.9793429374694824</v>
       </c>
       <c r="F84" t="n">
-        <v>0.8492031097412109</v>
+        <v>0.8356744050979614</v>
       </c>
       <c r="G84" t="n">
-        <v>0.8266828060150146</v>
+        <v>0.8139017820358276</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1812018901109695</v>
+        <v>0.3689493834972382</v>
       </c>
       <c r="I84" t="n">
-        <v>0.7930781841278076</v>
+        <v>0.8259283900260925</v>
       </c>
       <c r="J84" t="n">
-        <v>0.787930428981781</v>
+        <v>0.7982358336448669</v>
       </c>
       <c r="K84" t="n">
-        <v>0.7948929667472839</v>
+        <v>0.8493283987045288</v>
       </c>
       <c r="L84" t="n">
-        <v>0.9591074585914612</v>
+        <v>0.9740352034568787</v>
       </c>
       <c r="M84" t="n">
-        <v>0.7914002537727356</v>
+        <v>0.8229898810386658</v>
       </c>
       <c r="N84" t="n">
-        <v>0.7594037652015686</v>
+        <v>0.7992569804191589</v>
       </c>
       <c r="O84" t="n">
         <v>83</v>
@@ -4413,46 +4413,46 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.1024355590343475</v>
+        <v>0.3289233446121216</v>
       </c>
       <c r="B85" t="n">
-        <v>0.8315354585647583</v>
+        <v>0.8047033548355103</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9097563028335571</v>
+        <v>0.868314266204834</v>
       </c>
       <c r="D85" t="n">
-        <v>0.7808780074119568</v>
+        <v>0.8033486008644104</v>
       </c>
       <c r="E85" t="n">
-        <v>0.969249963760376</v>
+        <v>0.9793999791145325</v>
       </c>
       <c r="F85" t="n">
-        <v>0.8548915386199951</v>
+        <v>0.8351694941520691</v>
       </c>
       <c r="G85" t="n">
-        <v>0.8326844573020935</v>
+        <v>0.8134703040122986</v>
       </c>
       <c r="H85" t="n">
-        <v>0.187469944357872</v>
+        <v>0.3668933212757111</v>
       </c>
       <c r="I85" t="n">
-        <v>0.7863729000091553</v>
+        <v>0.8230665922164917</v>
       </c>
       <c r="J85" t="n">
-        <v>0.7647755146026611</v>
+        <v>0.7812053561210632</v>
       </c>
       <c r="K85" t="n">
-        <v>0.8065441250801086</v>
+        <v>0.8622961640357971</v>
       </c>
       <c r="L85" t="n">
-        <v>0.9568801522254944</v>
+        <v>0.9747495651245117</v>
       </c>
       <c r="M85" t="n">
-        <v>0.785128116607666</v>
+        <v>0.8197502493858337</v>
       </c>
       <c r="N85" t="n">
-        <v>0.7517412900924683</v>
+        <v>0.7962610721588135</v>
       </c>
       <c r="O85" t="n">
         <v>84</v>
@@ -4460,46 +4460,46 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.09956130385398865</v>
+        <v>0.3267596960067749</v>
       </c>
       <c r="B86" t="n">
-        <v>0.8311582803726196</v>
+        <v>0.8085472583770752</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9150540232658386</v>
+        <v>0.8575925827026367</v>
       </c>
       <c r="D86" t="n">
-        <v>0.7792115211486816</v>
+        <v>0.8153727650642395</v>
       </c>
       <c r="E86" t="n">
-        <v>0.970258355140686</v>
+        <v>0.9804878830909729</v>
       </c>
       <c r="F86" t="n">
-        <v>0.8574336767196655</v>
+        <v>0.8353869915008545</v>
       </c>
       <c r="G86" t="n">
-        <v>0.8349702954292297</v>
+        <v>0.8140802383422852</v>
       </c>
       <c r="H86" t="n">
-        <v>0.196527287364006</v>
+        <v>0.370366096496582</v>
       </c>
       <c r="I86" t="n">
-        <v>0.7818793058395386</v>
+        <v>0.8233314752578735</v>
       </c>
       <c r="J86" t="n">
-        <v>0.7719169855117798</v>
+        <v>0.7826114892959595</v>
       </c>
       <c r="K86" t="n">
-        <v>0.7837511301040649</v>
+        <v>0.8618277311325073</v>
       </c>
       <c r="L86" t="n">
-        <v>0.9556263089179993</v>
+        <v>0.9735203385353088</v>
       </c>
       <c r="M86" t="n">
-        <v>0.7777805924415588</v>
+        <v>0.8203116059303284</v>
       </c>
       <c r="N86" t="n">
-        <v>0.7449148297309875</v>
+        <v>0.7966188192367554</v>
       </c>
       <c r="O86" t="n">
         <v>85</v>
@@ -4507,46 +4507,46 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.1014488860964775</v>
+        <v>0.3216056823730469</v>
       </c>
       <c r="B87" t="n">
-        <v>0.829261302947998</v>
+        <v>0.8065959215164185</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9136015176773071</v>
+        <v>0.8692494630813599</v>
       </c>
       <c r="D87" t="n">
-        <v>0.7766024470329285</v>
+        <v>0.8073670864105225</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9695441126823425</v>
+        <v>0.9801599383354187</v>
       </c>
       <c r="F87" t="n">
-        <v>0.8545660972595215</v>
+        <v>0.8380973339080811</v>
       </c>
       <c r="G87" t="n">
-        <v>0.8320706486701965</v>
+        <v>0.8167809844017029</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1834300607442856</v>
+        <v>0.3729119896888733</v>
       </c>
       <c r="I87" t="n">
-        <v>0.7903562784194946</v>
+        <v>0.8276398777961731</v>
       </c>
       <c r="J87" t="n">
-        <v>0.7880563139915466</v>
+        <v>0.8216774463653564</v>
       </c>
       <c r="K87" t="n">
-        <v>0.7827903032302856</v>
+        <v>0.8264293670654297</v>
       </c>
       <c r="L87" t="n">
-        <v>0.9591800570487976</v>
+        <v>0.9724776744842529</v>
       </c>
       <c r="M87" t="n">
-        <v>0.7854198813438416</v>
+        <v>0.8240465521812439</v>
       </c>
       <c r="N87" t="n">
-        <v>0.7546874284744263</v>
+        <v>0.8007883429527283</v>
       </c>
       <c r="O87" t="n">
         <v>86</v>
@@ -4554,46 +4554,46 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.1031274050474167</v>
+        <v>0.3277606666088104</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8205440044403076</v>
+        <v>0.8003702163696289</v>
       </c>
       <c r="C88" t="n">
-        <v>0.918360710144043</v>
+        <v>0.8732797503471375</v>
       </c>
       <c r="D88" t="n">
-        <v>0.759864866733551</v>
+        <v>0.8018406629562378</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9678744673728943</v>
+        <v>0.9801380634307861</v>
       </c>
       <c r="F88" t="n">
-        <v>0.8498293161392212</v>
+        <v>0.8353384733200073</v>
       </c>
       <c r="G88" t="n">
-        <v>0.8270907998085022</v>
+        <v>0.813739001750946</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1992511749267578</v>
+        <v>0.3779660761356354</v>
       </c>
       <c r="I88" t="n">
-        <v>0.7845581769943237</v>
+        <v>0.8235183954238892</v>
       </c>
       <c r="J88" t="n">
-        <v>0.7855440974235535</v>
+        <v>0.797828733921051</v>
       </c>
       <c r="K88" t="n">
-        <v>0.7690609693527222</v>
+        <v>0.8426446318626404</v>
       </c>
       <c r="L88" t="n">
-        <v>0.9552350640296936</v>
+        <v>0.9711953401565552</v>
       </c>
       <c r="M88" t="n">
-        <v>0.7772108912467957</v>
+        <v>0.8196245431900024</v>
       </c>
       <c r="N88" t="n">
-        <v>0.7457206845283508</v>
+        <v>0.7957836985588074</v>
       </c>
       <c r="O88" t="n">
         <v>87</v>
@@ -4601,46 +4601,46 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.09758421778678894</v>
+        <v>0.3182995319366455</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8271236419677734</v>
+        <v>0.8119188547134399</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9177920818328857</v>
+        <v>0.8658050894737244</v>
       </c>
       <c r="D89" t="n">
-        <v>0.7735960483551025</v>
+        <v>0.8204781413078308</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9701935648918152</v>
+        <v>0.9813480973243713</v>
       </c>
       <c r="F89" t="n">
-        <v>0.8565430641174316</v>
+        <v>0.8410795927047729</v>
       </c>
       <c r="G89" t="n">
-        <v>0.8343237042427063</v>
+        <v>0.8198893666267395</v>
       </c>
       <c r="H89" t="n">
-        <v>0.1917174011468887</v>
+        <v>0.3694707751274109</v>
       </c>
       <c r="I89" t="n">
-        <v>0.7872727513313293</v>
+        <v>0.8243117332458496</v>
       </c>
       <c r="J89" t="n">
-        <v>0.8025566339492798</v>
+        <v>0.7891194820404053</v>
       </c>
       <c r="K89" t="n">
-        <v>0.7632459998130798</v>
+        <v>0.8554462790489197</v>
       </c>
       <c r="L89" t="n">
-        <v>0.955916702747345</v>
+        <v>0.9741432070732117</v>
       </c>
       <c r="M89" t="n">
-        <v>0.7824020981788635</v>
+        <v>0.8209453821182251</v>
       </c>
       <c r="N89" t="n">
-        <v>0.7512938976287842</v>
+        <v>0.7974210381507874</v>
       </c>
       <c r="O89" t="n">
         <v>88</v>
@@ -4648,46 +4648,46 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.1035098508000374</v>
+        <v>0.3260251581668854</v>
       </c>
       <c r="B90" t="n">
-        <v>0.8295254707336426</v>
+        <v>0.8023374080657959</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9109156131744385</v>
+        <v>0.8675532341003418</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7789804339408875</v>
+        <v>0.8074585795402527</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9688297510147095</v>
+        <v>0.9805359244346619</v>
       </c>
       <c r="F90" t="n">
-        <v>0.8551785945892334</v>
+        <v>0.8352307081222534</v>
       </c>
       <c r="G90" t="n">
-        <v>0.8328633904457092</v>
+        <v>0.8138085007667542</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1910706609487534</v>
+        <v>0.385308712720871</v>
       </c>
       <c r="I90" t="n">
-        <v>0.7838135957717896</v>
+        <v>0.8149237632751465</v>
       </c>
       <c r="J90" t="n">
-        <v>0.7697824835777283</v>
+        <v>0.7650402188301086</v>
       </c>
       <c r="K90" t="n">
-        <v>0.7938642501831055</v>
+        <v>0.8602539896965027</v>
       </c>
       <c r="L90" t="n">
-        <v>0.9564550518989563</v>
+        <v>0.972787618637085</v>
       </c>
       <c r="M90" t="n">
-        <v>0.7816085815429688</v>
+        <v>0.8098581433296204</v>
       </c>
       <c r="N90" t="n">
-        <v>0.7487557530403137</v>
+        <v>0.7857317924499512</v>
       </c>
       <c r="O90" t="n">
         <v>89</v>
@@ -4695,46 +4695,46 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.0994793176651001</v>
+        <v>0.3209137320518494</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8301080465316772</v>
+        <v>0.8043941259384155</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9144951105117798</v>
+        <v>0.8735771775245667</v>
       </c>
       <c r="D91" t="n">
-        <v>0.772491991519928</v>
+        <v>0.8060391545295715</v>
       </c>
       <c r="E91" t="n">
-        <v>0.968696117401123</v>
+        <v>0.9801068902015686</v>
       </c>
       <c r="F91" t="n">
-        <v>0.8558101654052734</v>
+        <v>0.8387967944145203</v>
       </c>
       <c r="G91" t="n">
-        <v>0.8330762982368469</v>
+        <v>0.8175029754638672</v>
       </c>
       <c r="H91" t="n">
-        <v>0.1857268214225769</v>
+        <v>0.3645376265048981</v>
       </c>
       <c r="I91" t="n">
-        <v>0.7876606583595276</v>
+        <v>0.8275940418243408</v>
       </c>
       <c r="J91" t="n">
-        <v>0.7932134866714478</v>
+        <v>0.8007940053939819</v>
       </c>
       <c r="K91" t="n">
-        <v>0.7717019319534302</v>
+        <v>0.8498529195785522</v>
       </c>
       <c r="L91" t="n">
-        <v>0.9561136364936829</v>
+        <v>0.9741069674491882</v>
       </c>
       <c r="M91" t="n">
-        <v>0.7823225259780884</v>
+        <v>0.8245943784713745</v>
       </c>
       <c r="N91" t="n">
-        <v>0.7505859136581421</v>
+        <v>0.8013484477996826</v>
       </c>
       <c r="O91" t="n">
         <v>90</v>
@@ -4742,46 +4742,46 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.09995833039283752</v>
+        <v>0.315302312374115</v>
       </c>
       <c r="B92" t="n">
-        <v>0.8218179941177368</v>
+        <v>0.8126550912857056</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9230683445930481</v>
+        <v>0.8675592541694641</v>
       </c>
       <c r="D92" t="n">
-        <v>0.7514186501502991</v>
+        <v>0.8167839646339417</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9672152400016785</v>
+        <v>0.9813490509986877</v>
       </c>
       <c r="F92" t="n">
-        <v>0.8505207896232605</v>
+        <v>0.8420087099075317</v>
       </c>
       <c r="G92" t="n">
-        <v>0.8281269669532776</v>
+        <v>0.8211730122566223</v>
       </c>
       <c r="H92" t="n">
-        <v>0.1989614218473434</v>
+        <v>0.3707408607006073</v>
       </c>
       <c r="I92" t="n">
-        <v>0.78023761510849</v>
+        <v>0.8252924680709839</v>
       </c>
       <c r="J92" t="n">
-        <v>0.7443205714225769</v>
+        <v>0.792576789855957</v>
       </c>
       <c r="K92" t="n">
-        <v>0.8123257756233215</v>
+        <v>0.8551941514015198</v>
       </c>
       <c r="L92" t="n">
-        <v>0.9581460356712341</v>
+        <v>0.9735063910484314</v>
       </c>
       <c r="M92" t="n">
-        <v>0.7768042087554932</v>
+        <v>0.8226956725120544</v>
       </c>
       <c r="N92" t="n">
-        <v>0.743868887424469</v>
+        <v>0.7987840175628662</v>
       </c>
       <c r="O92" t="n">
         <v>91</v>
@@ -4789,46 +4789,46 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.09959288686513901</v>
+        <v>0.322586327791214</v>
       </c>
       <c r="B93" t="n">
-        <v>0.8300649523735046</v>
+        <v>0.8052283525466919</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9175573587417603</v>
+        <v>0.8671582937240601</v>
       </c>
       <c r="D93" t="n">
-        <v>0.7692571878433228</v>
+        <v>0.8078821897506714</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9692361950874329</v>
+        <v>0.9802719354629517</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8553188443183899</v>
+        <v>0.8370543718338013</v>
       </c>
       <c r="G93" t="n">
-        <v>0.8328587412834167</v>
+        <v>0.8160675764083862</v>
       </c>
       <c r="H93" t="n">
-        <v>0.1937323957681656</v>
+        <v>0.384965717792511</v>
       </c>
       <c r="I93" t="n">
-        <v>0.786687970161438</v>
+        <v>0.8193999528884888</v>
       </c>
       <c r="J93" t="n">
-        <v>0.7714803814888</v>
+        <v>0.7898781895637512</v>
       </c>
       <c r="K93" t="n">
-        <v>0.7946023344993591</v>
+        <v>0.8391152024269104</v>
       </c>
       <c r="L93" t="n">
-        <v>0.9562695026397705</v>
+        <v>0.969904899597168</v>
       </c>
       <c r="M93" t="n">
-        <v>0.7828794121742249</v>
+        <v>0.8137525916099548</v>
       </c>
       <c r="N93" t="n">
-        <v>0.7505659461021423</v>
+        <v>0.7900735139846802</v>
       </c>
       <c r="O93" t="n">
         <v>92</v>
@@ -4836,46 +4836,46 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.09729864448308945</v>
+        <v>0.3228183686733246</v>
       </c>
       <c r="B94" t="n">
-        <v>0.8304766416549683</v>
+        <v>0.7992365956306458</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9198949933052063</v>
+        <v>0.8753353357315063</v>
       </c>
       <c r="D94" t="n">
-        <v>0.7739977836608887</v>
+        <v>0.7992792725563049</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9708230495452881</v>
+        <v>0.9803729653358459</v>
       </c>
       <c r="F94" t="n">
-        <v>0.857582151889801</v>
+        <v>0.8358530402183533</v>
       </c>
       <c r="G94" t="n">
-        <v>0.8353569507598877</v>
+        <v>0.81478351354599</v>
       </c>
       <c r="H94" t="n">
-        <v>0.1826777458190918</v>
+        <v>0.3786991536617279</v>
       </c>
       <c r="I94" t="n">
-        <v>0.793000340461731</v>
+        <v>0.8266506791114807</v>
       </c>
       <c r="J94" t="n">
-        <v>0.7969339489936829</v>
+        <v>0.8103762269020081</v>
       </c>
       <c r="K94" t="n">
-        <v>0.7890117764472961</v>
+        <v>0.83822101354599</v>
       </c>
       <c r="L94" t="n">
-        <v>0.9583526253700256</v>
+        <v>0.9713917374610901</v>
       </c>
       <c r="M94" t="n">
-        <v>0.7929811477661133</v>
+        <v>0.8240634799003601</v>
       </c>
       <c r="N94" t="n">
-        <v>0.7612033486366272</v>
+        <v>0.7999067902565002</v>
       </c>
       <c r="O94" t="n">
         <v>93</v>
@@ -4883,46 +4883,46 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.09897197782993317</v>
+        <v>0.313102513551712</v>
       </c>
       <c r="B95" t="n">
-        <v>0.8318939805030823</v>
+        <v>0.8112165927886963</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9160346388816833</v>
+        <v>0.871300220489502</v>
       </c>
       <c r="D95" t="n">
-        <v>0.7785621881484985</v>
+        <v>0.8150418996810913</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9712430238723755</v>
+        <v>0.9811603426933289</v>
       </c>
       <c r="F95" t="n">
-        <v>0.8584451079368591</v>
+        <v>0.8435679078102112</v>
       </c>
       <c r="G95" t="n">
-        <v>0.8365854024887085</v>
+        <v>0.8224295973777771</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1875202655792236</v>
+        <v>0.3736533224582672</v>
       </c>
       <c r="I95" t="n">
-        <v>0.7824646234512329</v>
+        <v>0.8227616548538208</v>
       </c>
       <c r="J95" t="n">
-        <v>0.7850422859191895</v>
+        <v>0.7890880107879639</v>
       </c>
       <c r="K95" t="n">
-        <v>0.7798678874969482</v>
+        <v>0.8500864505767822</v>
       </c>
       <c r="L95" t="n">
-        <v>0.9550731778144836</v>
+        <v>0.9729907512664795</v>
       </c>
       <c r="M95" t="n">
-        <v>0.7824459075927734</v>
+        <v>0.8184522986412048</v>
       </c>
       <c r="N95" t="n">
-        <v>0.7488117814064026</v>
+        <v>0.7950413227081299</v>
       </c>
       <c r="O95" t="n">
         <v>94</v>
@@ -4930,46 +4930,46 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.1008859649300575</v>
+        <v>0.3132643103599548</v>
       </c>
       <c r="B96" t="n">
-        <v>0.8298659324645996</v>
+        <v>0.8130837678909302</v>
       </c>
       <c r="C96" t="n">
-        <v>0.919908881187439</v>
+        <v>0.8630335927009583</v>
       </c>
       <c r="D96" t="n">
-        <v>0.7721551060676575</v>
+        <v>0.8206267952919006</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9688491821289062</v>
+        <v>0.9816350936889648</v>
       </c>
       <c r="F96" t="n">
-        <v>0.8564104437828064</v>
+        <v>0.8410452008247375</v>
       </c>
       <c r="G96" t="n">
-        <v>0.8344138860702515</v>
+        <v>0.8206740021705627</v>
       </c>
       <c r="H96" t="n">
-        <v>0.1902196854352951</v>
+        <v>0.3764522671699524</v>
       </c>
       <c r="I96" t="n">
-        <v>0.7846634387969971</v>
+        <v>0.8250054121017456</v>
       </c>
       <c r="J96" t="n">
-        <v>0.7800766825675964</v>
+        <v>0.8081663250923157</v>
       </c>
       <c r="K96" t="n">
-        <v>0.7803747057914734</v>
+        <v>0.8349096179008484</v>
       </c>
       <c r="L96" t="n">
-        <v>0.9549269676208496</v>
+        <v>0.971929669380188</v>
       </c>
       <c r="M96" t="n">
-        <v>0.7802295088768005</v>
+        <v>0.8213203549385071</v>
       </c>
       <c r="N96" t="n">
-        <v>0.748046338558197</v>
+        <v>0.7975011467933655</v>
       </c>
       <c r="O96" t="n">
         <v>95</v>
@@ -4977,46 +4977,46 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.09904184937477112</v>
+        <v>0.3139509856700897</v>
       </c>
       <c r="B97" t="n">
-        <v>0.8296225070953369</v>
+        <v>0.8100016117095947</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9223230481147766</v>
+        <v>0.8749883770942688</v>
       </c>
       <c r="D97" t="n">
-        <v>0.768476128578186</v>
+        <v>0.8113589882850647</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9696309566497803</v>
+        <v>0.9806884527206421</v>
       </c>
       <c r="F97" t="n">
-        <v>0.8570330142974854</v>
+        <v>0.843328595161438</v>
       </c>
       <c r="G97" t="n">
-        <v>0.8350006937980652</v>
+        <v>0.8222633600234985</v>
       </c>
       <c r="H97" t="n">
-        <v>0.1833483725786209</v>
+        <v>0.3835671544075012</v>
       </c>
       <c r="I97" t="n">
-        <v>0.7912771701812744</v>
+        <v>0.8192484378814697</v>
       </c>
       <c r="J97" t="n">
-        <v>0.7852560877799988</v>
+        <v>0.7964048981666565</v>
       </c>
       <c r="K97" t="n">
-        <v>0.7935917973518372</v>
+        <v>0.829352080821991</v>
       </c>
       <c r="L97" t="n">
-        <v>0.9570428133010864</v>
+        <v>0.9710118770599365</v>
       </c>
       <c r="M97" t="n">
-        <v>0.7893897891044617</v>
+        <v>0.8125446438789368</v>
       </c>
       <c r="N97" t="n">
-        <v>0.7572731971740723</v>
+        <v>0.7893360257148743</v>
       </c>
       <c r="O97" t="n">
         <v>96</v>
@@ -5024,46 +5024,46 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.09477287530899048</v>
+        <v>0.3172321915626526</v>
       </c>
       <c r="B98" t="n">
-        <v>0.8310775756835938</v>
+        <v>0.8036702871322632</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9237664937973022</v>
+        <v>0.8759233355522156</v>
       </c>
       <c r="D98" t="n">
-        <v>0.7711150646209717</v>
+        <v>0.8051750659942627</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9705526828765869</v>
+        <v>0.980984091758728</v>
       </c>
       <c r="F98" t="n">
-        <v>0.8591753840446472</v>
+        <v>0.8387808203697205</v>
       </c>
       <c r="G98" t="n">
-        <v>0.8373922109603882</v>
+        <v>0.8182836771011353</v>
       </c>
       <c r="H98" t="n">
-        <v>0.1889106631278992</v>
+        <v>0.384351372718811</v>
       </c>
       <c r="I98" t="n">
-        <v>0.7870197296142578</v>
+        <v>0.8192149996757507</v>
       </c>
       <c r="J98" t="n">
-        <v>0.8020681142807007</v>
+        <v>0.7943761348724365</v>
       </c>
       <c r="K98" t="n">
-        <v>0.7695453763008118</v>
+        <v>0.834122359752655</v>
       </c>
       <c r="L98" t="n">
-        <v>0.9557781219482422</v>
+        <v>0.9703729748725891</v>
       </c>
       <c r="M98" t="n">
-        <v>0.7854347229003906</v>
+        <v>0.8137636780738831</v>
       </c>
       <c r="N98" t="n">
-        <v>0.7534999251365662</v>
+        <v>0.7897145748138428</v>
       </c>
       <c r="O98" t="n">
         <v>97</v>
@@ -5071,46 +5071,46 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.09480655193328857</v>
+        <v>0.3175768554210663</v>
       </c>
       <c r="B99" t="n">
-        <v>0.824205756187439</v>
+        <v>0.8038229942321777</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9251360893249512</v>
+        <v>0.8760827779769897</v>
       </c>
       <c r="D99" t="n">
-        <v>0.7633445858955383</v>
+        <v>0.8057984113693237</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9696107506752014</v>
+        <v>0.9811521768569946</v>
       </c>
       <c r="F99" t="n">
-        <v>0.8557711243629456</v>
+        <v>0.8401191830635071</v>
       </c>
       <c r="G99" t="n">
-        <v>0.8335944414138794</v>
+        <v>0.8190593123435974</v>
       </c>
       <c r="H99" t="n">
-        <v>0.1887782365083694</v>
+        <v>0.3822771012783051</v>
       </c>
       <c r="I99" t="n">
-        <v>0.785383939743042</v>
+        <v>0.8193826675415039</v>
       </c>
       <c r="J99" t="n">
-        <v>0.7757101058959961</v>
+        <v>0.7863057851791382</v>
       </c>
       <c r="K99" t="n">
-        <v>0.7864718437194824</v>
+        <v>0.8434826731681824</v>
       </c>
       <c r="L99" t="n">
-        <v>0.9568429589271545</v>
+        <v>0.9710695147514343</v>
       </c>
       <c r="M99" t="n">
-        <v>0.7810486555099487</v>
+        <v>0.8138912320137024</v>
       </c>
       <c r="N99" t="n">
-        <v>0.749243438243866</v>
+        <v>0.7902604341506958</v>
       </c>
       <c r="O99" t="n">
         <v>98</v>
@@ -5118,46 +5118,46 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.09736672043800354</v>
+        <v>0.3045999705791473</v>
       </c>
       <c r="B100" t="n">
-        <v>0.8351314067840576</v>
+        <v>0.8216685056686401</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9137461185455322</v>
+        <v>0.8700382709503174</v>
       </c>
       <c r="D100" t="n">
-        <v>0.7845374345779419</v>
+        <v>0.8277731537818909</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9723497629165649</v>
+        <v>0.9824070930480957</v>
       </c>
       <c r="F100" t="n">
-        <v>0.8593976497650146</v>
+        <v>0.8490239977836609</v>
       </c>
       <c r="G100" t="n">
-        <v>0.8380392789840698</v>
+        <v>0.8285388946533203</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1916511803865433</v>
+        <v>0.3820877075195312</v>
       </c>
       <c r="I100" t="n">
-        <v>0.7852227687835693</v>
+        <v>0.8179702758789062</v>
       </c>
       <c r="J100" t="n">
-        <v>0.7810377478599548</v>
+        <v>0.7735108137130737</v>
       </c>
       <c r="K100" t="n">
-        <v>0.7792799472808838</v>
+        <v>0.8571619391441345</v>
       </c>
       <c r="L100" t="n">
-        <v>0.955833911895752</v>
+        <v>0.9713260531425476</v>
       </c>
       <c r="M100" t="n">
-        <v>0.7801499962806702</v>
+        <v>0.8131908178329468</v>
       </c>
       <c r="N100" t="n">
-        <v>0.7477489113807678</v>
+        <v>0.7893577218055725</v>
       </c>
       <c r="O100" t="n">
         <v>99</v>
@@ -5165,46 +5165,46 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.09402097016572952</v>
+        <v>0.3069210648536682</v>
       </c>
       <c r="B101" t="n">
-        <v>0.8315433263778687</v>
+        <v>0.8116991519927979</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9235520362854004</v>
+        <v>0.8761891722679138</v>
       </c>
       <c r="D101" t="n">
-        <v>0.7735662460327148</v>
+        <v>0.8193303346633911</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9706642031669617</v>
+        <v>0.9822377562522888</v>
       </c>
       <c r="F101" t="n">
-        <v>0.8606840968132019</v>
+        <v>0.8455115556716919</v>
       </c>
       <c r="G101" t="n">
-        <v>0.8389388918876648</v>
+        <v>0.8250774741172791</v>
       </c>
       <c r="H101" t="n">
-        <v>0.1956097632646561</v>
+        <v>0.387095034122467</v>
       </c>
       <c r="I101" t="n">
-        <v>0.7842171788215637</v>
+        <v>0.8180065155029297</v>
       </c>
       <c r="J101" t="n">
-        <v>0.7876730561256409</v>
+        <v>0.7774643898010254</v>
       </c>
       <c r="K101" t="n">
-        <v>0.766916811466217</v>
+        <v>0.8542366623878479</v>
       </c>
       <c r="L101" t="n">
-        <v>0.9548173546791077</v>
+        <v>0.9708969593048096</v>
       </c>
       <c r="M101" t="n">
-        <v>0.7771854400634766</v>
+        <v>0.8140444159507751</v>
       </c>
       <c r="N101" t="n">
-        <v>0.7459373474121094</v>
+        <v>0.7893966436386108</v>
       </c>
       <c r="O101" t="n">
         <v>100</v>
@@ -5212,46 +5212,46 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.09780321270227432</v>
+        <v>0.3061551451683044</v>
       </c>
       <c r="B102" t="n">
-        <v>0.8260419964790344</v>
+        <v>0.8162380456924438</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9203734993934631</v>
+        <v>0.8686704635620117</v>
       </c>
       <c r="D102" t="n">
-        <v>0.770072877407074</v>
+        <v>0.8224392533302307</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9709154963493347</v>
+        <v>0.9822887182235718</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8563724160194397</v>
+        <v>0.8459687829017639</v>
       </c>
       <c r="G102" t="n">
-        <v>0.8349140286445618</v>
+        <v>0.8257855176925659</v>
       </c>
       <c r="H102" t="n">
-        <v>0.1969783306121826</v>
+        <v>0.3862312436103821</v>
       </c>
       <c r="I102" t="n">
-        <v>0.7837721109390259</v>
+        <v>0.8198502659797668</v>
       </c>
       <c r="J102" t="n">
-        <v>0.7631963491439819</v>
+        <v>0.7894793748855591</v>
       </c>
       <c r="K102" t="n">
-        <v>0.7919357419013977</v>
+        <v>0.8430930972099304</v>
       </c>
       <c r="L102" t="n">
-        <v>0.9562666416168213</v>
+        <v>0.9712463021278381</v>
       </c>
       <c r="M102" t="n">
-        <v>0.7773076891899109</v>
+        <v>0.8154059052467346</v>
       </c>
       <c r="N102" t="n">
-        <v>0.7448239922523499</v>
+        <v>0.7910590171813965</v>
       </c>
       <c r="O102" t="n">
         <v>101</v>
@@ -5259,46 +5259,46 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.09688076376914978</v>
+        <v>0.3118134140968323</v>
       </c>
       <c r="B103" t="n">
-        <v>0.819650411605835</v>
+        <v>0.8030344247817993</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9270326495170593</v>
+        <v>0.8813552856445312</v>
       </c>
       <c r="D103" t="n">
-        <v>0.7509073615074158</v>
+        <v>0.8050415515899658</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9690083861351013</v>
+        <v>0.9815751314163208</v>
       </c>
       <c r="F103" t="n">
-        <v>0.8513798117637634</v>
+        <v>0.8410477638244629</v>
       </c>
       <c r="G103" t="n">
-        <v>0.8293646574020386</v>
+        <v>0.8207523226737976</v>
       </c>
       <c r="H103" t="n">
-        <v>0.1936548203229904</v>
+        <v>0.385406494140625</v>
       </c>
       <c r="I103" t="n">
-        <v>0.7828255891799927</v>
+        <v>0.8191217184066772</v>
       </c>
       <c r="J103" t="n">
-        <v>0.7661771178245544</v>
+        <v>0.7955960035324097</v>
       </c>
       <c r="K103" t="n">
-        <v>0.7917623519897461</v>
+        <v>0.8301489949226379</v>
       </c>
       <c r="L103" t="n">
-        <v>0.956564724445343</v>
+        <v>0.9697785973548889</v>
       </c>
       <c r="M103" t="n">
-        <v>0.7787554860115051</v>
+        <v>0.812505304813385</v>
       </c>
       <c r="N103" t="n">
-        <v>0.7460752725601196</v>
+        <v>0.7892149686813354</v>
       </c>
       <c r="O103" t="n">
         <v>102</v>
@@ -5306,46 +5306,46 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.09832608699798584</v>
+        <v>0.3154790103435516</v>
       </c>
       <c r="B104" t="n">
-        <v>0.8357095718383789</v>
+        <v>0.8022915124893188</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9193529486656189</v>
+        <v>0.88519686460495</v>
       </c>
       <c r="D104" t="n">
-        <v>0.7786167860031128</v>
+        <v>0.7976870536804199</v>
       </c>
       <c r="E104" t="n">
-        <v>0.9710217118263245</v>
+        <v>0.9801743030548096</v>
       </c>
       <c r="F104" t="n">
-        <v>0.8597734570503235</v>
+        <v>0.8412623405456543</v>
       </c>
       <c r="G104" t="n">
-        <v>0.8387707471847534</v>
+        <v>0.8204314708709717</v>
       </c>
       <c r="H104" t="n">
-        <v>0.1912310868501663</v>
+        <v>0.3778328001499176</v>
       </c>
       <c r="I104" t="n">
-        <v>0.7865912914276123</v>
+        <v>0.8238224983215332</v>
       </c>
       <c r="J104" t="n">
-        <v>0.770821213722229</v>
+        <v>0.7874686717987061</v>
       </c>
       <c r="K104" t="n">
-        <v>0.7923228740692139</v>
+        <v>0.8581714034080505</v>
       </c>
       <c r="L104" t="n">
-        <v>0.9558706879615784</v>
+        <v>0.9715420007705688</v>
       </c>
       <c r="M104" t="n">
-        <v>0.7814029455184937</v>
+        <v>0.8213012218475342</v>
       </c>
       <c r="N104" t="n">
-        <v>0.7492136359214783</v>
+        <v>0.7971223592758179</v>
       </c>
       <c r="O104" t="n">
         <v>103</v>
@@ -5353,46 +5353,46 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.0932682678103447</v>
+        <v>0.3103164434432983</v>
       </c>
       <c r="B105" t="n">
-        <v>0.8340140581130981</v>
+        <v>0.8123137950897217</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9253304004669189</v>
+        <v>0.8696689009666443</v>
       </c>
       <c r="D105" t="n">
-        <v>0.7746535539627075</v>
+        <v>0.8150920867919922</v>
       </c>
       <c r="E105" t="n">
-        <v>0.9710150957107544</v>
+        <v>0.9817076325416565</v>
       </c>
       <c r="F105" t="n">
-        <v>0.8627029657363892</v>
+        <v>0.8430351614952087</v>
       </c>
       <c r="G105" t="n">
-        <v>0.8418978452682495</v>
+        <v>0.8228238821029663</v>
       </c>
       <c r="H105" t="n">
-        <v>0.1823478937149048</v>
+        <v>0.3777728974819183</v>
       </c>
       <c r="I105" t="n">
-        <v>0.7918246984481812</v>
+        <v>0.8230401277542114</v>
       </c>
       <c r="J105" t="n">
-        <v>0.8025009036064148</v>
+        <v>0.7937536835670471</v>
       </c>
       <c r="K105" t="n">
-        <v>0.7775101661682129</v>
+        <v>0.8456681966781616</v>
       </c>
       <c r="L105" t="n">
-        <v>0.9584682583808899</v>
+        <v>0.9711481332778931</v>
       </c>
       <c r="M105" t="n">
-        <v>0.7897887229919434</v>
+        <v>0.8188889622688293</v>
       </c>
       <c r="N105" t="n">
-        <v>0.7593022584915161</v>
+        <v>0.7952371835708618</v>
       </c>
       <c r="O105" t="n">
         <v>104</v>
@@ -5400,46 +5400,46 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.09255911409854889</v>
+        <v>0.3057454228401184</v>
       </c>
       <c r="B106" t="n">
-        <v>0.8381499052047729</v>
+        <v>0.8077372908592224</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9214065670967102</v>
+        <v>0.8859327435493469</v>
       </c>
       <c r="D106" t="n">
-        <v>0.786859393119812</v>
+        <v>0.8098748922348022</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9726008772850037</v>
+        <v>0.9820603728294373</v>
       </c>
       <c r="F106" t="n">
-        <v>0.8640793561935425</v>
+        <v>0.8466475605964661</v>
       </c>
       <c r="G106" t="n">
-        <v>0.8425664305686951</v>
+        <v>0.8259248733520508</v>
       </c>
       <c r="H106" t="n">
-        <v>0.1881303936243057</v>
+        <v>0.3826692998409271</v>
       </c>
       <c r="I106" t="n">
-        <v>0.7876483201980591</v>
+        <v>0.8196934461593628</v>
       </c>
       <c r="J106" t="n">
-        <v>0.7873360514640808</v>
+        <v>0.7822898030281067</v>
       </c>
       <c r="K106" t="n">
-        <v>0.7827484607696533</v>
+        <v>0.8503262400627136</v>
       </c>
       <c r="L106" t="n">
-        <v>0.9561828374862671</v>
+        <v>0.9705787301063538</v>
       </c>
       <c r="M106" t="n">
-        <v>0.7850257754325867</v>
+        <v>0.8148903846740723</v>
       </c>
       <c r="N106" t="n">
-        <v>0.7525843977928162</v>
+        <v>0.7911155819892883</v>
       </c>
       <c r="O106" t="n">
         <v>105</v>
@@ -5447,46 +5447,46 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.09456726908683777</v>
+        <v>0.3028082549571991</v>
       </c>
       <c r="B107" t="n">
-        <v>0.8394968509674072</v>
+        <v>0.8117920160293579</v>
       </c>
       <c r="C107" t="n">
-        <v>0.917611837387085</v>
+        <v>0.8830744028091431</v>
       </c>
       <c r="D107" t="n">
-        <v>0.79444420337677</v>
+        <v>0.8142064213752747</v>
       </c>
       <c r="E107" t="n">
-        <v>0.974088728427887</v>
+        <v>0.9820428490638733</v>
       </c>
       <c r="F107" t="n">
-        <v>0.864981472492218</v>
+        <v>0.8487206697463989</v>
       </c>
       <c r="G107" t="n">
-        <v>0.8439664244651794</v>
+        <v>0.8283978700637817</v>
       </c>
       <c r="H107" t="n">
-        <v>0.191420778632164</v>
+        <v>0.3811750113964081</v>
       </c>
       <c r="I107" t="n">
-        <v>0.7865815758705139</v>
+        <v>0.8234204053878784</v>
       </c>
       <c r="J107" t="n">
-        <v>0.7823426127433777</v>
+        <v>0.7975465059280396</v>
       </c>
       <c r="K107" t="n">
-        <v>0.7848260998725891</v>
+        <v>0.8448430299758911</v>
       </c>
       <c r="L107" t="n">
-        <v>0.9563671350479126</v>
+        <v>0.970991849899292</v>
       </c>
       <c r="M107" t="n">
-        <v>0.7836118936538696</v>
+        <v>0.8205137848854065</v>
       </c>
       <c r="N107" t="n">
-        <v>0.7513042688369751</v>
+        <v>0.79594886302948</v>
       </c>
       <c r="O107" t="n">
         <v>106</v>
@@ -5494,46 +5494,46 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.09480761736631393</v>
+        <v>0.301363080739975</v>
       </c>
       <c r="B108" t="n">
-        <v>0.8220520615577698</v>
+        <v>0.8144972920417786</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9266283512115479</v>
+        <v>0.8783217668533325</v>
       </c>
       <c r="D108" t="n">
-        <v>0.7609710097312927</v>
+        <v>0.8200175166130066</v>
       </c>
       <c r="E108" t="n">
-        <v>0.9705938696861267</v>
+        <v>0.9825818538665771</v>
       </c>
       <c r="F108" t="n">
-        <v>0.8551200032234192</v>
+        <v>0.8487127423286438</v>
       </c>
       <c r="G108" t="n">
-        <v>0.8336930871009827</v>
+        <v>0.8284873962402344</v>
       </c>
       <c r="H108" t="n">
-        <v>0.1841374784708023</v>
+        <v>0.3881119787693024</v>
       </c>
       <c r="I108" t="n">
-        <v>0.7886087894439697</v>
+        <v>0.8245530128479004</v>
       </c>
       <c r="J108" t="n">
-        <v>0.7746610641479492</v>
+        <v>0.8159569501876831</v>
       </c>
       <c r="K108" t="n">
-        <v>0.7985219359397888</v>
+        <v>0.8257977962493896</v>
       </c>
       <c r="L108" t="n">
-        <v>0.9574040770530701</v>
+        <v>0.969540536403656</v>
       </c>
       <c r="M108" t="n">
-        <v>0.7864246368408203</v>
+        <v>0.8208478689193726</v>
       </c>
       <c r="N108" t="n">
-        <v>0.753893256187439</v>
+        <v>0.7967871427536011</v>
       </c>
       <c r="O108" t="n">
         <v>107</v>
@@ -5541,46 +5541,46 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.09635782241821289</v>
+        <v>0.3079279661178589</v>
       </c>
       <c r="B109" t="n">
-        <v>0.8248646855354309</v>
+        <v>0.8109051585197449</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9229466915130615</v>
+        <v>0.8798574805259705</v>
       </c>
       <c r="D109" t="n">
-        <v>0.7682250142097473</v>
+        <v>0.8134785294532776</v>
       </c>
       <c r="E109" t="n">
-        <v>0.9708778858184814</v>
+        <v>0.9817438125610352</v>
       </c>
       <c r="F109" t="n">
-        <v>0.856972336769104</v>
+        <v>0.8461358547210693</v>
       </c>
       <c r="G109" t="n">
-        <v>0.8354654908180237</v>
+        <v>0.8254500031471252</v>
       </c>
       <c r="H109" t="n">
-        <v>0.1927387565374374</v>
+        <v>0.3798987865447998</v>
       </c>
       <c r="I109" t="n">
-        <v>0.7845543622970581</v>
+        <v>0.8224241733551025</v>
       </c>
       <c r="J109" t="n">
-        <v>0.7911231517791748</v>
+        <v>0.7955280542373657</v>
       </c>
       <c r="K109" t="n">
-        <v>0.7668802738189697</v>
+        <v>0.842175304889679</v>
       </c>
       <c r="L109" t="n">
-        <v>0.9561648964881897</v>
+        <v>0.9716008901596069</v>
       </c>
       <c r="M109" t="n">
-        <v>0.7788289785385132</v>
+        <v>0.8181873559951782</v>
       </c>
       <c r="N109" t="n">
-        <v>0.7481564283370972</v>
+        <v>0.794313371181488</v>
       </c>
       <c r="O109" t="n">
         <v>108</v>
@@ -5588,46 +5588,46 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.09689963608980179</v>
+        <v>0.3036368787288666</v>
       </c>
       <c r="B110" t="n">
-        <v>0.8355511426925659</v>
+        <v>0.8144115209579468</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9207422137260437</v>
+        <v>0.8685463070869446</v>
       </c>
       <c r="D110" t="n">
-        <v>0.7840641140937805</v>
+        <v>0.8225746750831604</v>
       </c>
       <c r="E110" t="n">
-        <v>0.9719517827033997</v>
+        <v>0.9832001328468323</v>
       </c>
       <c r="F110" t="n">
-        <v>0.8625891208648682</v>
+        <v>0.8448256254196167</v>
       </c>
       <c r="G110" t="n">
-        <v>0.8420799970626831</v>
+        <v>0.8251801729202271</v>
       </c>
       <c r="H110" t="n">
-        <v>0.1914976984262466</v>
+        <v>0.3830628991127014</v>
       </c>
       <c r="I110" t="n">
-        <v>0.7873315811157227</v>
+        <v>0.8203731775283813</v>
       </c>
       <c r="J110" t="n">
-        <v>0.7898905277252197</v>
+        <v>0.7886642217636108</v>
       </c>
       <c r="K110" t="n">
-        <v>0.7753311395645142</v>
+        <v>0.8441974520683289</v>
       </c>
       <c r="L110" t="n">
-        <v>0.9561576843261719</v>
+        <v>0.9710441827774048</v>
       </c>
       <c r="M110" t="n">
-        <v>0.7825332283973694</v>
+        <v>0.8154864907264709</v>
       </c>
       <c r="N110" t="n">
-        <v>0.7513976097106934</v>
+        <v>0.7916674017906189</v>
       </c>
       <c r="O110" t="n">
         <v>109</v>
@@ -5635,46 +5635,46 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.09196574240922928</v>
+        <v>0.3074666857719421</v>
       </c>
       <c r="B111" t="n">
-        <v>0.8395555019378662</v>
+        <v>0.8064959049224854</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9205844402313232</v>
+        <v>0.8801681995391846</v>
       </c>
       <c r="D111" t="n">
-        <v>0.7817986011505127</v>
+        <v>0.8061626553535461</v>
       </c>
       <c r="E111" t="n">
-        <v>0.9735012054443359</v>
+        <v>0.9815742969512939</v>
       </c>
       <c r="F111" t="n">
-        <v>0.8642129302024841</v>
+        <v>0.8429826498031616</v>
       </c>
       <c r="G111" t="n">
-        <v>0.843787670135498</v>
+        <v>0.8230270147323608</v>
       </c>
       <c r="H111" t="n">
-        <v>0.1909740567207336</v>
+        <v>0.3858937323093414</v>
       </c>
       <c r="I111" t="n">
-        <v>0.7883318662643433</v>
+        <v>0.8207570910453796</v>
       </c>
       <c r="J111" t="n">
-        <v>0.7853386998176575</v>
+        <v>0.7919262647628784</v>
       </c>
       <c r="K111" t="n">
-        <v>0.7804515361785889</v>
+        <v>0.8439351320266724</v>
       </c>
       <c r="L111" t="n">
-        <v>0.9565467238426208</v>
+        <v>0.9709372520446777</v>
       </c>
       <c r="M111" t="n">
-        <v>0.7829048037528992</v>
+        <v>0.8171039223670959</v>
       </c>
       <c r="N111" t="n">
-        <v>0.7514824867248535</v>
+        <v>0.7924042344093323</v>
       </c>
       <c r="O111" t="n">
         <v>110</v>
@@ -5682,46 +5682,46 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.09293288737535477</v>
+        <v>0.3009959161281586</v>
       </c>
       <c r="B112" t="n">
-        <v>0.8362336754798889</v>
+        <v>0.8140928745269775</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9216387271881104</v>
+        <v>0.8789300322532654</v>
       </c>
       <c r="D112" t="n">
-        <v>0.785383403301239</v>
+        <v>0.8163641691207886</v>
       </c>
       <c r="E112" t="n">
-        <v>0.9724438786506653</v>
+        <v>0.9826931953430176</v>
       </c>
       <c r="F112" t="n">
-        <v>0.8640590906143188</v>
+        <v>0.8477962017059326</v>
       </c>
       <c r="G112" t="n">
-        <v>0.8429877161979675</v>
+        <v>0.8279021382331848</v>
       </c>
       <c r="H112" t="n">
-        <v>0.1869159340858459</v>
+        <v>0.3792380392551422</v>
       </c>
       <c r="I112" t="n">
-        <v>0.789126992225647</v>
+        <v>0.8271265029907227</v>
       </c>
       <c r="J112" t="n">
-        <v>0.7938286066055298</v>
+        <v>0.8123374581336975</v>
       </c>
       <c r="K112" t="n">
-        <v>0.7760478854179382</v>
+        <v>0.8370569348335266</v>
       </c>
       <c r="L112" t="n">
-        <v>0.9568827152252197</v>
+        <v>0.970366895198822</v>
       </c>
       <c r="M112" t="n">
-        <v>0.784853994846344</v>
+        <v>0.8245119452476501</v>
       </c>
       <c r="N112" t="n">
-        <v>0.7537941932678223</v>
+        <v>0.8004809617996216</v>
       </c>
       <c r="O112" t="n">
         <v>111</v>
@@ -5729,46 +5729,46 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.08878311514854431</v>
+        <v>0.2978909313678741</v>
       </c>
       <c r="B113" t="n">
-        <v>0.8279829025268555</v>
+        <v>0.8174777030944824</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9295580983161926</v>
+        <v>0.8785273432731628</v>
       </c>
       <c r="D113" t="n">
-        <v>0.7697184681892395</v>
+        <v>0.8213575482368469</v>
       </c>
       <c r="E113" t="n">
-        <v>0.9730376005172729</v>
+        <v>0.9825586676597595</v>
       </c>
       <c r="F113" t="n">
-        <v>0.862157940864563</v>
+        <v>0.8504502773284912</v>
       </c>
       <c r="G113" t="n">
-        <v>0.8410242795944214</v>
+        <v>0.8305268287658691</v>
       </c>
       <c r="H113" t="n">
-        <v>0.1959425806999207</v>
+        <v>0.3877638876438141</v>
       </c>
       <c r="I113" t="n">
-        <v>0.7848969697952271</v>
+        <v>0.8221645355224609</v>
       </c>
       <c r="J113" t="n">
-        <v>0.788567066192627</v>
+        <v>0.8039036393165588</v>
       </c>
       <c r="K113" t="n">
-        <v>0.7708316445350647</v>
+        <v>0.831034779548645</v>
       </c>
       <c r="L113" t="n">
-        <v>0.9561231136322021</v>
+        <v>0.9695145487785339</v>
       </c>
       <c r="M113" t="n">
-        <v>0.7795824408531189</v>
+        <v>0.8172440528869629</v>
       </c>
       <c r="N113" t="n">
-        <v>0.7480974197387695</v>
+        <v>0.7935160398483276</v>
       </c>
       <c r="O113" t="n">
         <v>112</v>
@@ -5776,848 +5776,49 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.09241510182619095</v>
+        <v>0.2967101335525513</v>
       </c>
       <c r="B114" t="n">
-        <v>0.8405753374099731</v>
+        <v>0.8139560222625732</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9232827425003052</v>
+        <v>0.8809938430786133</v>
       </c>
       <c r="D114" t="n">
-        <v>0.790662944316864</v>
+        <v>0.8208827972412109</v>
       </c>
       <c r="E114" t="n">
-        <v>0.9728742837905884</v>
+        <v>0.9830002188682556</v>
       </c>
       <c r="F114" t="n">
-        <v>0.8673495054244995</v>
+        <v>0.8501144647598267</v>
       </c>
       <c r="G114" t="n">
-        <v>0.8463670015335083</v>
+        <v>0.830543041229248</v>
       </c>
       <c r="H114" t="n">
-        <v>0.1948070973157883</v>
+        <v>0.3777800798416138</v>
       </c>
       <c r="I114" t="n">
-        <v>0.7849907279014587</v>
+        <v>0.8235725164413452</v>
       </c>
       <c r="J114" t="n">
-        <v>0.7678155899047852</v>
+        <v>0.7974579334259033</v>
       </c>
       <c r="K114" t="n">
-        <v>0.7906466722488403</v>
+        <v>0.8427485227584839</v>
       </c>
       <c r="L114" t="n">
-        <v>0.9557313323020935</v>
+        <v>0.9711843729019165</v>
       </c>
       <c r="M114" t="n">
-        <v>0.7790828347206116</v>
+        <v>0.819477915763855</v>
       </c>
       <c r="N114" t="n">
-        <v>0.7461282014846802</v>
+        <v>0.7958120703697205</v>
       </c>
       <c r="O114" t="n">
         <v>113</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>0.0927836149930954</v>
-      </c>
-      <c r="B115" t="n">
-        <v>0.8377020955085754</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0.9219079613685608</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0.7832930088043213</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0.9750506281852722</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0.8630759119987488</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0.8429920673370361</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0.1930985003709793</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0.7860047817230225</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0.7762401103973389</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.7890476584434509</v>
-      </c>
-      <c r="L115" t="n">
-        <v>0.9553526043891907</v>
-      </c>
-      <c r="M115" t="n">
-        <v>0.7826012969017029</v>
-      </c>
-      <c r="N115" t="n">
-        <v>0.7500847578048706</v>
-      </c>
-      <c r="O115" t="n">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>0.09112367779016495</v>
-      </c>
-      <c r="B116" t="n">
-        <v>0.8326114416122437</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.9239796996116638</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0.7859992384910583</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0.9739618301391602</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0.8649759888648987</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0.8439047932624817</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0.1888456344604492</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0.7896991372108459</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0.7972803711891174</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.7729465961456299</v>
-      </c>
-      <c r="L116" t="n">
-        <v>0.9567883610725403</v>
-      </c>
-      <c r="M116" t="n">
-        <v>0.7849099040031433</v>
-      </c>
-      <c r="N116" t="n">
-        <v>0.7542160153388977</v>
-      </c>
-      <c r="O116" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>0.09604574739933014</v>
-      </c>
-      <c r="B117" t="n">
-        <v>0.828668475151062</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.9238907694816589</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0.7705504298210144</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0.9719515442848206</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0.8586041927337646</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0.8376187682151794</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0.1913527101278305</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0.7846198081970215</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0.786516547203064</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.7732846736907959</v>
-      </c>
-      <c r="L117" t="n">
-        <v>0.9552901983261108</v>
-      </c>
-      <c r="M117" t="n">
-        <v>0.7798359394073486</v>
-      </c>
-      <c r="N117" t="n">
-        <v>0.7482250928878784</v>
-      </c>
-      <c r="O117" t="n">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>0.0882161557674408</v>
-      </c>
-      <c r="B118" t="n">
-        <v>0.8301622867584229</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0.9325078725814819</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.7706482410430908</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0.9734669327735901</v>
-      </c>
-      <c r="F118" t="n">
-        <v>0.8639740347862244</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0.8429215550422668</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0.1910098642110825</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0.7861249446868896</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0.7846556305885315</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.7752438187599182</v>
-      </c>
-      <c r="L118" t="n">
-        <v>0.9557316899299622</v>
-      </c>
-      <c r="M118" t="n">
-        <v>0.7799179553985596</v>
-      </c>
-      <c r="N118" t="n">
-        <v>0.7490673065185547</v>
-      </c>
-      <c r="O118" t="n">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>0.08718128502368927</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0.8354247808456421</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0.9279122948646545</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0.7786893248558044</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0.9724714159965515</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0.8665062189102173</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0.8457337021827698</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0.1882415562868118</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0.7918047308921814</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0.7989857792854309</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.7799659371376038</v>
-      </c>
-      <c r="L119" t="n">
-        <v>0.9571715593338013</v>
-      </c>
-      <c r="M119" t="n">
-        <v>0.78935307264328</v>
-      </c>
-      <c r="N119" t="n">
-        <v>0.7575046420097351</v>
-      </c>
-      <c r="O119" t="n">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>0.09058724343776703</v>
-      </c>
-      <c r="B120" t="n">
-        <v>0.8312748670578003</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0.9246112704277039</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0.7789095044136047</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0.9737140536308289</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0.8634611368179321</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0.8427173495292664</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0.194125697016716</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0.7871723771095276</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0.7846497297286987</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.779584527015686</v>
-      </c>
-      <c r="L120" t="n">
-        <v>0.9553790092468262</v>
-      </c>
-      <c r="M120" t="n">
-        <v>0.7820953726768494</v>
-      </c>
-      <c r="N120" t="n">
-        <v>0.7499238252639771</v>
-      </c>
-      <c r="O120" t="n">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>0.09016473591327667</v>
-      </c>
-      <c r="B121" t="n">
-        <v>0.8345296382904053</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0.9250879883766174</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0.7858599424362183</v>
-      </c>
-      <c r="E121" t="n">
-        <v>0.9728446006774902</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0.8664889335632324</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0.8454318642616272</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0.1871751695871353</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0.7908618450164795</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0.7790914177894592</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.7973489761352539</v>
-      </c>
-      <c r="L121" t="n">
-        <v>0.9578273892402649</v>
-      </c>
-      <c r="M121" t="n">
-        <v>0.7881163954734802</v>
-      </c>
-      <c r="N121" t="n">
-        <v>0.7562924027442932</v>
-      </c>
-      <c r="O121" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>0.08702116459608078</v>
-      </c>
-      <c r="B122" t="n">
-        <v>0.8343799114227295</v>
-      </c>
-      <c r="C122" t="n">
-        <v>0.9282318949699402</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0.7832780480384827</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0.9737249612808228</v>
-      </c>
-      <c r="F122" t="n">
-        <v>0.8669047355651855</v>
-      </c>
-      <c r="G122" t="n">
-        <v>0.8464210629463196</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0.1880958080291748</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0.7910100221633911</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0.7830705642700195</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.7918230295181274</v>
-      </c>
-      <c r="L122" t="n">
-        <v>0.9587241411209106</v>
-      </c>
-      <c r="M122" t="n">
-        <v>0.7874109745025635</v>
-      </c>
-      <c r="N122" t="n">
-        <v>0.7566573619842529</v>
-      </c>
-      <c r="O122" t="n">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>0.08997147530317307</v>
-      </c>
-      <c r="B123" t="n">
-        <v>0.8381868600845337</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0.9227247834205627</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0.7896577119827271</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0.9750524759292603</v>
-      </c>
-      <c r="F123" t="n">
-        <v>0.8673769235610962</v>
-      </c>
-      <c r="G123" t="n">
-        <v>0.8471110463142395</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0.1928500980138779</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0.785099983215332</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0.7904336452484131</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.7739913463592529</v>
-      </c>
-      <c r="L123" t="n">
-        <v>0.956768810749054</v>
-      </c>
-      <c r="M123" t="n">
-        <v>0.7821123003959656</v>
-      </c>
-      <c r="N123" t="n">
-        <v>0.7508013844490051</v>
-      </c>
-      <c r="O123" t="n">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>0.09021265804767609</v>
-      </c>
-      <c r="B124" t="n">
-        <v>0.8327499628067017</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0.9269946813583374</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0.7735017538070679</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0.9730057716369629</v>
-      </c>
-      <c r="F124" t="n">
-        <v>0.8628867268562317</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0.8422237634658813</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0.1850608736276627</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0.7869430780410767</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0.8014094829559326</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.7730337381362915</v>
-      </c>
-      <c r="L124" t="n">
-        <v>0.9558895230293274</v>
-      </c>
-      <c r="M124" t="n">
-        <v>0.7869248390197754</v>
-      </c>
-      <c r="N124" t="n">
-        <v>0.7542711496353149</v>
-      </c>
-      <c r="O124" t="n">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>0.09024610370397568</v>
-      </c>
-      <c r="B125" t="n">
-        <v>0.8385328054428101</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0.9248965978622437</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0.788821280002594</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0.9736154079437256</v>
-      </c>
-      <c r="F125" t="n">
-        <v>0.8671393394470215</v>
-      </c>
-      <c r="G125" t="n">
-        <v>0.847057580947876</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0.1929699182510376</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0.7844340801239014</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0.7786908745765686</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.7784849405288696</v>
-      </c>
-      <c r="L125" t="n">
-        <v>0.9544649720191956</v>
-      </c>
-      <c r="M125" t="n">
-        <v>0.7786252498626709</v>
-      </c>
-      <c r="N125" t="n">
-        <v>0.7459608316421509</v>
-      </c>
-      <c r="O125" t="n">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>0.09041210263967514</v>
-      </c>
-      <c r="B126" t="n">
-        <v>0.8349529504776001</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.9235107898712158</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.7855452299118042</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0.9744927287101746</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0.865635871887207</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0.8454805016517639</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0.1880998164415359</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0.7894062995910645</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0.777763843536377</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.795259416103363</v>
-      </c>
-      <c r="L126" t="n">
-        <v>0.9573262929916382</v>
-      </c>
-      <c r="M126" t="n">
-        <v>0.786418616771698</v>
-      </c>
-      <c r="N126" t="n">
-        <v>0.7551146149635315</v>
-      </c>
-      <c r="O126" t="n">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>0.09182547777891159</v>
-      </c>
-      <c r="B127" t="n">
-        <v>0.8331024646759033</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0.9256414771080017</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.7780405282974243</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0.9731646776199341</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0.8638238310813904</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.8436387777328491</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0.1948139071464539</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0.7864326238632202</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0.7914657592773438</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.7681396007537842</v>
-      </c>
-      <c r="L127" t="n">
-        <v>0.955756664276123</v>
-      </c>
-      <c r="M127" t="n">
-        <v>0.7796401977539062</v>
-      </c>
-      <c r="N127" t="n">
-        <v>0.7489816546440125</v>
-      </c>
-      <c r="O127" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>0.08438314497470856</v>
-      </c>
-      <c r="B128" t="n">
-        <v>0.8327348828315735</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0.9334609508514404</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0.77178555727005</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0.9734917283058167</v>
-      </c>
-      <c r="F128" t="n">
-        <v>0.8663425445556641</v>
-      </c>
-      <c r="G128" t="n">
-        <v>0.8459242582321167</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0.1859049797058105</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0.7888380289077759</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0.7881702780723572</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.7842901349067688</v>
-      </c>
-      <c r="L128" t="n">
-        <v>0.9568616151809692</v>
-      </c>
-      <c r="M128" t="n">
-        <v>0.7862802147865295</v>
-      </c>
-      <c r="N128" t="n">
-        <v>0.7534002661705017</v>
-      </c>
-      <c r="O128" t="n">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>0.08660933375358582</v>
-      </c>
-      <c r="B129" t="n">
-        <v>0.8444600701332092</v>
-      </c>
-      <c r="C129" t="n">
-        <v>0.9279094338417053</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0.7908688187599182</v>
-      </c>
-      <c r="E129" t="n">
-        <v>0.9744833707809448</v>
-      </c>
-      <c r="F129" t="n">
-        <v>0.8707906007766724</v>
-      </c>
-      <c r="G129" t="n">
-        <v>0.8501984477043152</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0.1910684555768967</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0.7873498201370239</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0.7846356630325317</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.7815925478935242</v>
-      </c>
-      <c r="L129" t="n">
-        <v>0.9570385217666626</v>
-      </c>
-      <c r="M129" t="n">
-        <v>0.7831048965454102</v>
-      </c>
-      <c r="N129" t="n">
-        <v>0.7511611580848694</v>
-      </c>
-      <c r="O129" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>0.08717162907123566</v>
-      </c>
-      <c r="B130" t="n">
-        <v>0.8311580419540405</v>
-      </c>
-      <c r="C130" t="n">
-        <v>0.9282877445220947</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0.7827388644218445</v>
-      </c>
-      <c r="E130" t="n">
-        <v>0.9746689200401306</v>
-      </c>
-      <c r="F130" t="n">
-        <v>0.8668069243431091</v>
-      </c>
-      <c r="G130" t="n">
-        <v>0.8463826179504395</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0.1904448121786118</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0.7873504161834717</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0.7866525053977966</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.7809725403785706</v>
-      </c>
-      <c r="L130" t="n">
-        <v>0.9552958607673645</v>
-      </c>
-      <c r="M130" t="n">
-        <v>0.7837910652160645</v>
-      </c>
-      <c r="N130" t="n">
-        <v>0.7514249086380005</v>
-      </c>
-      <c r="O130" t="n">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>0.08694004267454147</v>
-      </c>
-      <c r="B131" t="n">
-        <v>0.8373270034790039</v>
-      </c>
-      <c r="C131" t="n">
-        <v>0.9279108643531799</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0.7844046354293823</v>
-      </c>
-      <c r="E131" t="n">
-        <v>0.9738686084747314</v>
-      </c>
-      <c r="F131" t="n">
-        <v>0.8684207201004028</v>
-      </c>
-      <c r="G131" t="n">
-        <v>0.8483623862266541</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0.1953515261411667</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0.7855414152145386</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0.7749345898628235</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.7848668098449707</v>
-      </c>
-      <c r="L131" t="n">
-        <v>0.9556536674499512</v>
-      </c>
-      <c r="M131" t="n">
-        <v>0.779870867729187</v>
-      </c>
-      <c r="N131" t="n">
-        <v>0.7481488585472107</v>
-      </c>
-      <c r="O131" t="n">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
